--- a/DicionarioDeDados-Financiamento.xlsx
+++ b/DicionarioDeDados-Financiamento.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSDS\Documents\GitHub\Open-Banking-\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5CCE6D-3DEB-4915-9099-F0EA547D0876}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="7170" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FinacimanetosPF" sheetId="5" r:id="rId1"/>
-    <sheet name="FinanciamentosPJ" sheetId="7" r:id="rId2"/>
+    <sheet name="FinanciamentosPF" sheetId="10" r:id="rId1"/>
+    <sheet name="FinanciamentosPJ" sheetId="5" r:id="rId2"/>
     <sheet name="Lista 4015" sheetId="8" r:id="rId3"/>
     <sheet name="Glossário Bacen" sheetId="9" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -49,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="235">
   <si>
     <t>Xpath</t>
   </si>
@@ -118,15 +125,6 @@
   </si>
   <si>
     <t>serviceCode</t>
-  </si>
-  <si>
-    <t>chargeTriggerInfo</t>
-  </si>
-  <si>
-    <t>maxPrice</t>
-  </si>
-  <si>
-    <t>Mandatóriio</t>
   </si>
   <si>
     <t>currency</t>
@@ -181,37 +179,10 @@
     <t>^(a\.[d,m,a]\.){1}$</t>
   </si>
   <si>
-    <t>'a.d.'
-'a.m.'
-'a.a.'</t>
-  </si>
-  <si>
     <t>incomeRateInfo</t>
   </si>
   <si>
     <t>opcional</t>
-  </si>
-  <si>
-    <t>1. cessão de direitos creditórios
-2. caução
-3. penhor
-4. alienação fiduciária
-5. hipoteca
-6. operações garantidas pelo governo
-7. outras garantias não fidejussórias
-8. seguros e assemelhados
-9. garantia fidejussória
-10. bens arrendados
-11. garantias internacionais
-12. operações garantidas por outras entidades
-13. acordos de compensação
-14. não aplicável</t>
-  </si>
-  <si>
-    <t>termsCondictions</t>
-  </si>
-  <si>
-    <t>Frequência sobre a qual incide a Remuneração. P. ex. 'a.d', 'a.m.', a.a.'</t>
   </si>
   <si>
     <t>Adiantamento a depositante</t>
@@ -667,316 +638,10 @@
     <t>enquadrem nas modalidades listadas anteriormente.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Relação de garantias exigidas, segundo documento 3040 do Bacen: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cessão de direitos creditórios</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: o cedente transfere ao credor/cessionário a titularidade de direitos creditórios, até a liquidação da dívida. O credor/cessionário passa a recebê-los diretamente dos devedores e credita o produto da operação para o cedente na operação que originou a cessão, até a sua liquidação, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>caução</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: garantia instituída sobre créditos do garantidor, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>penhor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: direito real que consiste na tradição de uma coisa móvel ou mobilizável, suscetível de alienação, realizada pelo devedor ou por terceiro ao credor, a fim de garantir o pagamento do débito, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>alienação fiduciária</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: o cedente transfere ao credor/cessionário a titularidade de direitos creditórios, até a liquidação da dívida. O credor/cessionário passa a recebê-los diretamente dos devedores e credita o produto da operação para o cedente na operação que originou a cessão, até a sua liquidação , 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hipoteca</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: direito real de garantia que afeta um bem imóvel para o cumprimento da obrigação, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">operações garantidas pelo governo: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nas instâncias federal, estadual ou municipal</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-outras garantias não fidejussórias</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: as garantias reais não descritas como: cessão de direitos creditórios, caução, penhor, alienação fiduciária, hipoteca ou operação garantida pelo governo 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>seguros e assemelhados:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> os seguros (e assemelhados) contratados para garantir o pagamento da operação em circunstâncias adversas,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">garantia fidejussória: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>baseada na fidelidade do garantidor em cumprir as obrigações, caso o devedor não o faça</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-bens arrendados: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">bem objeto do arrendamento financeiro
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">garantias internacionais: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">declarar se a garantia é mitigadora ou não, observados os critérios definidos pela Circular 3.644, de 4
-de março de 2013, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>operações garantidas por outras entidade:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> declarar as garantias prestadas pelas entidades descritas no item 3. Informações de Garantias (i) do documento 3040 - Bacen, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>acordos de compensação</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: operações que sejam abrangidas por acordos para a compensação e liquidação de obrigações no âmbito do SFN, nos termos da Resolução 3.263, de 24 de fevereiro de 2005, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>não aplicável</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>requiredWarranties</t>
   </si>
   <si>
-    <t>Nome da Instituição, pertencente à organização, responsável pela comercialização das modalidades de Financiamentos para Pessoas Jurídicas cosultadas. Ex. 'Empresa da Organização A'</t>
-  </si>
-  <si>
-    <t>O responsável pela comercialização das modalidades de Financiamentos para Pessoas Jurídicas cosultadas - o CNPJ corresponde ao número de inscrição no Cadastro de Pessoa Jurídica. Composto por: os oito primeiros números à esquerda (XX. XXX. XXX) formam a "raiz" ou base, que identifica a empresa de forma única. Os quatro seguintes números de ordem das filiais da empresa. Normalmente a empresa matriz tem este campo preenchido com '0001'. Os dois últimos números correspondem ao dígito verificador.  composição do CNPJ pode ser assim representada, conforme ex. '50.685.362/0001-35' 
-Deve-se ter apenas os números do CNPJ, sem máscara.</t>
-  </si>
-  <si>
-    <t>Nomes das Tarifas cobradas sobre Serviços ofertados à Modalidade de Financiamento, para pessoa física. (Campo Livre) (trazer exemplo)</t>
-  </si>
-  <si>
     <t>Sigla de identificação do serviço relacionado à Modalidade de Financiamento informada, para pessoa jurídica. Campo aberto. P. ex.  (Trazer a Exemplo)</t>
-  </si>
-  <si>
-    <t>Fatores geradores de cobrança que incidem sobre as Modalidades de Financiamentos informada, para pessoa jurídica. Campo Livre Trazer Exemplo</t>
-  </si>
-  <si>
-    <t>Valor máximo para a tarifa cobrada, relativa ao serviço ofertado para a Modalidade de Financiamento, para pessoa jurídica. P.ex. 45,00</t>
-  </si>
-  <si>
-    <t>Campo aberto para informar as condições contratuais relativas à Modalidade de Financiamento informada</t>
   </si>
   <si>
     <t>Nome da Instituição, pertencente à organização, responsável pela comercialização das modalidades de Financiamentos para Pessoas Físicas consultadas. Ex. 'Empresa da Organização A'</t>
@@ -988,12 +653,6 @@
   </si>
   <si>
     <t>Sigla de identificação do serviço relacionado à Modalidade de Financiamento informada, para pessoa física. Campo aberto. P. ex.  (Trazer a Exemplo)</t>
-  </si>
-  <si>
-    <t>Valor máximo para a tarifa cobrada, relativa ao serviço ofertado para a Modalidade de Financiamento, para pessoa física. P.ex. 45,00</t>
-  </si>
-  <si>
-    <t>Modalidades de financiamentos ofertados para pessoas jurídicas, conforme Circular 4015-Bacen. Segundo cartilha do Bacen: Financiamento é um contrato entre o cliente e uma instituição financeira, mas com, destinação específica como para a aquisição de veículo ou de bem imóvel, que funcionam como garantia para o crédito concedido. p. ex. financiamento imobiliário e de veículos.</t>
   </si>
   <si>
     <t>aquisição de bens – veículos automotores
@@ -1008,32 +667,7 @@
 outros financiamentos</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">^(-?\d{1,14}){1}(\,\d{1,2}){1}$
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(\d{1,9}\,\d{2}){1}</t>
-    </r>
-  </si>
-  <si>
     <t>^(\W{3}){1}$</t>
-  </si>
-  <si>
-    <t>0. Pré
-1. Pós</t>
-  </si>
-  <si>
-    <t>Percentual que incide sobre a composição da taxa de juros remuneratórias</t>
-  </si>
-  <si>
-    <t>Descrição da Remuneração relativa as taxas de juros remuneratórias sobre a modalidade de Financiamento, para pessoa jurídica</t>
   </si>
   <si>
     <t xml:space="preserve">Modalidades de financiamentos ofertados para pessoas físicas, conforme Circular 4015-Bacen. Segundo cartilha do Bacen: Financiamento é um contrato entre o cliente e uma instituição financeira, mas com, destinação específica como para a aquisição de veículo ou de bem imóvel, que funcionam como garantia para o crédito concedido. p. ex. financiamento imobiliário e de veículos. </t>
@@ -1324,9 +958,6 @@
     <t>Descrição da Remuneração relativa as taxas de juros remuneratórias sobre a modalidade de Financiamento informada, para pessoa física</t>
   </si>
   <si>
-    <t>(\d{1,9}\,\d{2}){1}</t>
-  </si>
-  <si>
     <t>^(\d{14})$</t>
   </si>
   <si>
@@ -1334,12 +965,234 @@
   </si>
   <si>
     <t>moeda (ISO-4217)</t>
+  </si>
+  <si>
+    <t>1.	cessão direitos creditórios – Duplicatas 
+2.	cessão direitos creditórios – Cheques
+3.	cessão direitos creditórios - fatura de cartão de crédito
+4.	cessão direitos creditórios - Aplicações financeiras – renda fixa
+5.	cessão direitos creditórios - Aplicações financeiras – renda variável
+6.	cessão direitos creditórios - Ações e debêntures
+7.	cessão direitos creditórios - Tributos e receitas orçamentárias
+8.	cessão direitos creditórios - Direitos sobre aluguéis
+9.	cessão direitos creditórios - Notas promissórias e outros direitos de crédito
+10.	caução – Duplicatas
+11.	caução – Cheques
+12.	caução – Fatura de cartão de crédito
+13.	caução – Aplicações financeiras – renda fixa 
+14.	caução – Aplicações financeiras – renda variável
+15.	caução – Ações e debêntures
+16.	caução – Tributos e receitas orçamentárias
+17.	caução – Direitos sobre aluguéis
+18.	caução – Depósito de títulos
+19.	caução – Depósitos à vista, depósitos a prazo, depósitos de poupança, em ouro ou em títulos público federais
+20.	caução – Notas promissórias e outros direitos de crédito
+21.	penhor – Duplicatas
+22.	penhor – Cheques
+23.	penhor – Fatura de cartão de crédito
+24.	penhor – Aplicações financeiras – renda fixa
+25.	penhor – Aplicações financeiras – renda variável
+26.	penhor - Ações e debêntures
+27.	penhor - Tributos e receitas orçamentárias
+28.	penhor - Direitos sobre aluguéis
+29.	alienação fiduciária – Equipamentos
+30.	alienação fiduciária – Veículos
+31.	alienação fiduciária - Imóveis residenciais
+32.	alienação fiduciária - Outros imóveis
+33.	alienação fiduciária - Bens e direitos integrantes de patrimônio de afetação
+34.	alienação fiduciária – Outros
+35.	hipoteca - Outros graus
+36.	hipoteca - Primeiro grau – imóveis residenciais
+37.	hipoteca - Primeiro grau – outros
+38.	hipoteca - Primeiro grau – bens e direitos integrantes de patrimônio de afetação 
+39.	operações garantidas pelo governo - Federal
+40.	operações garantidas pelo governo - Estadual ou distrital
+41.	operações garantidas pelo governo – Municipal
+42.	operações garantidas pelo governo – Garantia prestada pelo Tesouro Nacional ou pelo Banco Central
+43.	ouras garantias não fidejussórias
+44.	seguro e assemelhados - Seguro rural
+45.	seguro e assemelhados – Proagro
+46.	seguro e assemelhados - SBCE - Sociedade Brasileira de Crédito à Exportação
+47.	seguro e assemelhados - FCVS - Fundo de Compensação de Variações Salariais
+48.	seguro e assemelhados – Apólices de crédito à exportação
+49.	seguro e assemelhados - Fundo garantidor / de aval
+50.	seguro e assemelhados - CCR - Convênio de Créditos Recíprocos
+51.	seguro e assemelhados – FGPC - Fundo de Garantia p/ a Promoção da Competit
+52.	seguro e assemelhados - FGTS – Fundo de Garantia do Tempo de Serviço
+53.	seguro e assemelhados - FGI – Fundo Garantidor para Investimentos
+54.	outros seguros e assemelhados
+55.	garantia fidejussória – Pessoa física
+56.	garantia fidejussória – Pessoa jurídica
+57.	garantia fidejussória – Pessoa física no exterior
+58.	garantia fidejussória – Pessoa jurídica no exterior
+59.	bens arrendados – Veículos automotores
+60.	bens arrendados – outros bens
+61.	garantias internacionais – Mitigadoras
+62.	garantias internacionais – Não Mitigadoras
+63.	operações garantidas por outras entidades – Entidades listadas no artigo 19, inciso V da Circular nº 3.644 2013
+64.	operações garantidas por outras entidades – Garantia prestada por fundo ou quaisquer outros mecanismos de cobertura do crédito instituídos pela Constituição Federal
+65.	operações garantidas por outras entidades – Garantia prestada pelo FGPC
+66.	operações garantidas por outras entidades – Garantia prestada por fundos
+67.	acordos de compensação</t>
+  </si>
+  <si>
+    <t>chargingTriggerInfo</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indica os tipos: mínimo, médio e máximo do valor informado. P.ex.'mínimo' </t>
+  </si>
+  <si>
+    <t>priceInfo</t>
+  </si>
+  <si>
+    <t>Descrição de como é composto o valor da tarifa. p.ex. '0,25% sobre o excedente do limite acima de R$ 500,00'</t>
+  </si>
+  <si>
+    <t>changingUnit</t>
+  </si>
+  <si>
+    <t>Unidade ou forma de cobrança. P.ex. 'Por mês'</t>
+  </si>
+  <si>
+    <t>Mínimo
+Médio
+Máximo</t>
+  </si>
+  <si>
+    <t>Este campo deve estar obrigatoriamente preenchido se não houver conteúdo para o item priceInfo</t>
+  </si>
+  <si>
+    <t>Valor da tarifa cobrada, relativa ao serviço ofertado para a Modalidade de Empréstimo, para pessoa física. P.ex. 45,00</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Este campo deve estar obrigatoriamente preenchido se não houver conteúdo para os itens: value, currency e type</t>
+  </si>
+  <si>
+    <t>este campo sempre deverá estar preenchido</t>
+  </si>
+  <si>
+    <t>Nome da Instituição, pertencente à organização, responsável pela comercialização das modalidades de Financiamentos para Pessoas jurídicas consultadas. Ex. 'Empresa da Organização A'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O responsável pela comercialização das modalidades de Financiamentos para Pessoas jurídicas consultadas - o CNPJ corresponde ao número de inscrição no Cadastro de Pessoa Jurídica. Composto por: os oito primeiros números à esquerda (XX. XXX. XXX) formam a "raiz" ou base, que identifica a empresa de forma única. Os quatro seguintes números de ordem das filiais da empresa. Normalmente a empresa matriz tem este campo preenchido com '0001'. Os dois últimos números correspondem ao dígito verificador.  Composição do CNPJ pode ser assim representada, conforme ex. '50.685.362/0001-35'.
+Deve-se ter apenas os números do CNPJ, sem máscara.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modalidades de financiamentos ofertados para pessoas jurídicas, conforme Circular 4015-Bacen. Segundo cartilha do Bacen: Financiamento é um contrato entre o cliente e uma instituição financeira, mas com, destinação específica como para a aquisição de veículo ou de bem imóvel, que funcionam como garantia para o crédito concedido. p. ex. financiamento imobiliário e de veículos. </t>
+  </si>
+  <si>
+    <t>Nomes das Tarifas cobradas sobre Serviços ofertados à Modalidade de Financiamento, para pessoa jurídica. (Campo Livre) (trazer exemplo)</t>
+  </si>
+  <si>
+    <t>Fatores geradores de cobrança que incidem sobre as Modalidades de Financiamentos, para pessoa jurídica. Campo Livre Trazer Exemplo</t>
+  </si>
+  <si>
+    <t>Valor da tarifa cobrada, relativa ao serviço ofertado para a Modalidade de Empréstimo, para pessoa jurídica. P.ex. 45,00</t>
+  </si>
+  <si>
+    <t>Descrição da Remuneração relativa as taxas de juros remuneratórias sobre a modalidade de Financiamento informada, para pessoa jurídica</t>
+  </si>
+  <si>
+    <t>1.	cessão direitos creditórios – Duplicatas 
+2.	cessão direitos creditórios – Cheques
+3.	cessão direitos creditórios - fatura de cartão de crédito
+4.	cessão direitos creditórios - Aplicações financeiras – renda fixa
+5.	cessão direitos creditórios - Aplicações financeiras – renda variável
+6.	cessão direitos creditórios - Ações e debêntures
+7.	cessão direitos creditórios - Tributos e receitas orçamentárias
+8.	cessão direitos creditórios - Direitos sobre aluguéis
+9.	cessão direitos creditórios - Notas promissórias e outros direitos de crédito
+10.	caução – Duplicatas
+11.	caução – Cheques
+12.	caução – Fatura de cartão de crédito
+13.	caução – Aplicações financeiras – renda fixa 
+14.	caução – Aplicações financeiras – renda variável
+15.	caução – Ações e debêntures
+16.	caução – Tributos e receitas orçamentárias
+17.	caução – Direitos sobre aluguéis
+18.	caução – Depósito de títulos
+19.	caução – Depósitos à vista, depósitos a prazo, depósitos de poupança, em ouro ou em títulos público federais
+20.	caução – Notas promissórias e outros direitos de crédito
+21.	penhor – Duplicatas
+22.	penhor – Cheques
+23.	penhor – Fatura de cartão de crédito
+24.	penhor – Aplicações financeiras – renda fixa
+25.	penhor – Aplicações financeiras – renda variável
+26.	penhor - Ações e debêntures
+27.	penhor - Tributos e receitas orçamentárias
+28.	penhor - Direitos sobre aluguéis
+29.	alienação fiduciária – Equipamentos
+30.	alienação fiduciária – Veículos
+31.	alienação fiduciária - Imóveis residenciais
+32.	alienação fiduciária - Outros imóveis
+33.	alienação fiduciária - Bens e direitos integrantes de patrimônio de afetação
+34.	alienação fiduciária – Outros
+35.	hipoteca - Outros graus
+36.	hipoteca - Primeiro grau – imóveis residenciais
+37.	hipoteca - Primeiro grau – outros
+38.	hipoteca - Primeiro grau – bens e direitos integrantes de patrimônio de afetação 
+39.	operações garantidas pelo governo - Federal
+40.	operações garantidas pelo governo - Estadual ou distrital
+41.	operações garantidas pelo governo – Municipal
+42.	operações garantidas pelo governo – Garantia prestada pelo Tesouro Nacional ou pelo Banco Central
+43.	ouras garantias não fidejussórias
+44.	seguro e assemelhados - Seguro rural
+45.	seguro e assemelhados – Proagro
+46.	seguro e assemelhados - SBCE - Sociedade Brasileira de Crédito à Exportação
+47.	seguro e assemelhados - FCVS - Fundo de Compensação de Variações Salariais
+48.	seguro e assemelhados – Apólices de crédito à exportação
+49.	seguro e assemelhados - Fundo garantidor / de aval
+50.	seguro e assemelhados - CCR - Convênio de Créditos Recíprocos
+51.	seguro e assemelhados – FGPC - Fundo de Garantia p/ a Promoção da Competit
+52.	seguro e assemelhados - FGTS – Fundo de Garantia do Tempo de Serviço
+53.	seguro e assemelhados - FGI – Fundo Garantidor para Investimentos
+54.	outros seguros e assemelhados
+55.	garantia fidejussória – Pessoa jurídica
+56.	garantia fidejussória – Pessoa jurídica
+57.	garantia fidejussória – Pessoa jurídica no exterior
+58.	garantia fidejussória – Pessoa jurídica no exterior
+59.	bens arrendados – Veículos automotores
+60.	bens arrendados – outros bens
+61.	garantias internacionais – Mitigadoras
+62.	garantias internacionais – Não Mitigadoras
+63.	operações garantidas por outras entidades – Entidades listadas no artigo 19, inciso V da Circular nº 3.644 2013
+64.	operações garantidas por outras entidades – Garantia prestada por fundo ou quaisquer outros mecanismos de cobertura do crédito instituídos pela Constituição Federal
+65.	operações garantidas por outras entidades – Garantia prestada pelo FGPC
+66.	operações garantidas por outras entidades – Garantia prestada por fundos
+67.	acordos de compensação</t>
+  </si>
+  <si>
+    <t>Campo aberto para informar as condições contratuais relativas à Modalidade de Financiamento para pessoa jurídica. Pode ser informada a URL referente ao endereço onde constam as condições informadas</t>
+  </si>
+  <si>
+    <t>Nomes das Tarifas cobradas sobre Serviços ofertados à Modalidade de Financiamento, para pessoa física. p.ex. 'Avaliação de Garantia Hipotecária, Avaliação de Propriedade Rural e Parecer Técnico para Prorrogação de Operações Rurais'</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>termsConditions</t>
+  </si>
+  <si>
+    <t>^(\d{1,9}\,\d{2}){1}$</t>
+  </si>
+  <si>
+    <t>a.d.
+a.m.
+a.a.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1357,13 +1210,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1400,6 +1246,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1452,7 +1304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1482,7 +1334,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1492,14 +1343,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1507,74 +1394,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1855,70 +1724,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987C75EC-EA35-4B16-ACF7-D2E55CD1199E}">
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="93.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26" style="6" customWidth="1"/>
     <col min="3" max="3" width="100.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="37" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="6" customWidth="1"/>
     <col min="7" max="7" width="30.42578125" style="6" customWidth="1"/>
     <col min="8" max="8" width="52.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.85546875" style="13" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="9" width="19.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.85546875" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3"/>
+      <c r="L1" s="46"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="str">
+      <c r="A2" s="29" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/",B2)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/name</v>
       </c>
@@ -1931,7 +1800,7 @@
       <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="37">
         <v>30</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -1941,19 +1810,19 @@
         <v>15</v>
       </c>
       <c r="H2" s="8"/>
-      <c r="I2" s="9">
+      <c r="I2" s="22">
         <v>1</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="22">
         <v>1</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="14"/>
+      <c r="L2" s="47"/>
     </row>
     <row r="3" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="str">
+      <c r="A3" s="30" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B3)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/name</v>
       </c>
@@ -1961,34 +1830,33 @@
         <v>11</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="43">
         <v>30</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="9">
+      <c r="H3" s="14"/>
+      <c r="I3" s="22">
         <v>1</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="22">
         <v>1</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="str">
+      <c r="A4" s="30" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B4)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/cnpjNumber</v>
       </c>
@@ -1996,36 +1864,35 @@
         <v>17</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D4" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="43">
         <v>14</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="I4" s="24">
+      <c r="G4" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="I4" s="22">
         <v>1</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="22">
         <v>1</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="str">
+      <c r="A5" s="30" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/",B5)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/types</v>
       </c>
@@ -2033,32 +1900,32 @@
         <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="43">
         <v>50</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="I5" s="9">
+        <v>197</v>
+      </c>
+      <c r="I5" s="22">
         <v>1</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="22">
         <v>1</v>
       </c>
       <c r="K5" s="10"/>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="str">
+      <c r="L5" s="47"/>
+    </row>
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/",B6)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/serviceName</v>
       </c>
@@ -2066,32 +1933,31 @@
         <v>20</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="37">
         <v>50</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="10"/>
-      <c r="I6" s="9">
+      <c r="I6" s="22">
         <v>1</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="22" t="s">
         <v>21</v>
       </c>
       <c r="K6" s="10"/>
-      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="str">
+      <c r="A7" s="30" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/personalFinancings/fees/",B7)</f>
         <v>openBankingBrazil/&lt;organisations&gt;/companies/personalFinancings/fees/serviceCode</v>
       </c>
@@ -2099,467 +1965,550 @@
         <v>22</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="37">
         <v>30</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="14" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="8"/>
-      <c r="I7" s="9">
+      <c r="I7" s="22">
         <v>1</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="str">
+      <c r="A8" s="29" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/",B8)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/chargeTriggerInfo</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>23</v>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/chargingTriggerInfo</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>208</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="37">
         <v>2000</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="8"/>
-      <c r="I8" s="9">
+      <c r="I8" s="22">
         <v>1</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="22" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/",B9)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/maxPrice</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/price/",B9)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/price/type</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="37">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="I9" s="22">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
+        <v>3</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/price/",B10)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/price/value</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="37">
+        <v>12</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="22">
+        <v>0</v>
+      </c>
+      <c r="J10" s="22">
+        <v>3</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/price/",B11)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/price/currency</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="41" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="24">
-        <v>12</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/Fees/",B10)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/Fees/currency</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="24">
-        <v>3</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="I10" s="9">
-        <v>1</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="str">
-        <f t="shared" ref="A11:A16" si="0">CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/",B11)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/rate</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="24">
-        <v>7</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="9">
+      <c r="E11" s="37">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="I11" s="22">
         <v>0</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/referencialRate</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>33</v>
+      <c r="J11" s="22">
+        <v>3</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="str">
+        <f t="shared" ref="A12:A13" si="0">CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/personalFinancings/fees/",B12)</f>
+        <v>openBankingBrazil/&lt;organisations&gt;/companies/personalFinancings/fees/priceInfo</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>212</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="27">
-        <v>7</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="9">
+      <c r="E12" s="37">
+        <v>80</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="22">
         <v>0</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="str">
+      <c r="J12" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/indexer</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>35</v>
+        <v>openBankingBrazil/&lt;organisations&gt;/companies/personalFinancings/fees/changingUnit</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>214</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="37">
+        <v>50</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="22">
+        <v>1</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="str">
+        <f t="shared" ref="A14:A19" si="1">CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/",B14)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/rate</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="37">
+        <v>7</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="22">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/referencialRate</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="9">
+      <c r="D15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="44">
+        <v>7</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="22">
         <v>0</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/prePostTax</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="27">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/frequency</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="24">
-        <v>4</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="K15" s="10"/>
-      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/incomeRateInfo</v>
+      <c r="A16" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/indexer</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>223</v>
+        <v>31</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="44">
+        <v>30</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="22">
+        <v>0</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/prePostTax</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="44">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="22">
+        <v>0</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/frequency</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="37">
+        <v>4</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="22">
+        <v>0</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/incomeRateInfo</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="37">
         <v>2000</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="16" t="s">
+      <c r="F19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9">
+      <c r="H19" s="8"/>
+      <c r="I19" s="22">
         <v>0</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J19" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" ht="390" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/",B17)</f>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/",B20)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/requiredWarranties</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="D17" s="28" t="s">
+      <c r="B20" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="24">
-        <v>50</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="E20" s="37">
+        <v>100</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="9">
+      <c r="G20" s="33"/>
+      <c r="H20" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="I20" s="22">
         <v>1</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J20" s="22">
         <v>14</v>
       </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/",B18)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/termsCondictions</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/",B21)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/termsConditions</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E21" s="37">
         <v>2000</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="16" t="s">
+      <c r="F21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="9">
+      <c r="H21" s="23"/>
+      <c r="I21" s="22">
         <v>0</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J21" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="10"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="10"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="10"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="C23" s="7"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D24" s="8"/>
+    </row>
+    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="10"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="26"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2568,29 +2517,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="100.7109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="93.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26" style="6" customWidth="1"/>
+    <col min="3" max="3" width="100.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="22" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="52.28515625" style="6" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.85546875" style="13" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.85546875" style="12" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -2598,25 +2547,25 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -2631,7 +2580,7 @@
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="str">
+      <c r="A2" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/",B2)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/name</v>
       </c>
@@ -2644,7 +2593,7 @@
       <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="22">
         <v>30</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -2663,32 +2612,32 @@
       <c r="K2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="14"/>
-    </row>
-    <row r="3" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="str">
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B3)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/name</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D3" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="15">
         <v>30</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="14"/>
       <c r="I3" s="9">
         <v>1</v>
       </c>
@@ -2700,36 +2649,36 @@
       </c>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="str">
+    <row r="4" spans="1:12" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B4)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/cnpjNumber</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="15">
         <v>14</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="G4" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="I4" s="22">
         <v>1</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="22">
         <v>1</v>
       </c>
       <c r="K4" s="10" t="s">
@@ -2737,93 +2686,93 @@
       </c>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancing/",B5)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancing/types</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/",B5)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/types</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="15">
         <v>50</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="I5" s="9">
         <v>1</v>
       </c>
-      <c r="J5" s="9">
-        <v>1</v>
+      <c r="J5" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="K5" s="10"/>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancing/fees/",B6)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancing/fees/serviceName</v>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/",B6)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/serviceName</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="22">
         <v>50</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>213</v>
-      </c>
+      <c r="H6" s="10"/>
       <c r="I6" s="9">
         <v>1</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/businessFinancing/fees/",B7)</f>
-        <v>openBankingBrazil/&lt;organisations&gt;/companies/businessFinancing/fees/serviceCode</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/businessFinancings/fees/",B7)</f>
+        <v>openBankingBrazil/&lt;organisations&gt;/companies/businessFinancings/fees/serviceCode</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>204</v>
+      <c r="C7" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="22">
         <v>30</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="14" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="8"/>
@@ -2831,31 +2780,31 @@
         <v>1</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancing/fees/",B8)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancing/fees/chargeTriggerInfo</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>23</v>
+      <c r="A8" s="16" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/",B8)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/chargingTriggerInfo</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>208</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="22">
         <v>2000</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="8"/>
@@ -2863,380 +2812,525 @@
         <v>1</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancing/fees/",B9)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancing/fees/maxPrice</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D9" s="6" t="s">
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/price/",B9)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/price/type</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="37">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>3</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/price/",B10)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/price/value</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E10" s="37">
         <v>12</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancing/Fees/",B10)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancing/Fees/currency</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="24">
-        <v>3</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>215</v>
+      <c r="G10" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>3</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/price/",B11)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/price/currency</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="37">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>3</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/businessFinancings/fees/",B12)</f>
+        <v>openBankingBrazil/&lt;organisations&gt;/companies/businessFinancings/fees/priceInfo</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="37">
+        <v>80</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/businessFinancings/fees/",B13)</f>
+        <v>openBankingBrazil/&lt;organisations&gt;/companies/businessFinancings/fees/changingUnit</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="37">
+        <v>50</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="9">
         <v>1</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="str">
-        <f t="shared" ref="A11:A16" si="0">CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancing/interestRates/",B11)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancing/interestRates/rate</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="J13" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="str">
+        <f t="shared" ref="A14:A19" si="0">CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/interestRates/",B14)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/interestRates/rate</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="22">
+        <v>7</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="24">
-        <v>7</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancing/interestRates/referencialRate</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="24">
-        <v>7</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancing/interestRates/indexer</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="24">
-        <v>30</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:12" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancing/interestRates/prePostTax</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="24">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>218</v>
+      </c>
       <c r="K14" s="10"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="str">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancing/interestRates/frequency</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>40</v>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/interestRates/referencialRate</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E15" s="24">
-        <v>4</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>218</v>
+      </c>
       <c r="K15" s="10"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="str">
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancing/interestRates/incomeRateInfo</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>218</v>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/interestRates/indexer</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="24">
-        <v>1000</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>218</v>
+      </c>
       <c r="K16" s="10"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="330.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancing/",B17)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancing/requiredWarranties</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>200</v>
+    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/interestRates/prePostTax</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D17" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="36">
-        <v>50</v>
+      <c r="E17" s="24">
+        <v>1</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30" t="s">
-        <v>46</v>
+        <v>27</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>36</v>
       </c>
       <c r="I17" s="9">
-        <v>1</v>
-      </c>
-      <c r="J17" s="9">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancing/",B18)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancing/termsCondictions</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>47</v>
+    <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/interestRates/frequency</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="24">
-        <v>2000</v>
+        <v>38</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="22">
+        <v>4</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>218</v>
+      </c>
       <c r="K18" s="10"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="10"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/interestRates/incomeRateInfo</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="22">
+        <v>2000</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>218</v>
+      </c>
       <c r="K19" s="10"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+    <row r="20" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/",B20)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/requiredWarranties</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="22">
+        <v>100</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1</v>
+      </c>
+      <c r="J20" s="9">
+        <v>14</v>
+      </c>
       <c r="K20" s="10"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="10"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+    <row r="21" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/",B21)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/termsConditions</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="22">
+        <v>2000</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>218</v>
+      </c>
       <c r="K21" s="10"/>
       <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="10"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="26"/>
+      <c r="H22" s="23"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="10"/>
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="C23" s="7"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="26"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="10"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D24" s="8"/>
+    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="10"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="26"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3245,7 +3339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3259,112 +3353,112 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3373,7 +3467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3382,692 +3476,692 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46" style="22" customWidth="1"/>
+    <col min="1" max="1" width="46" style="20" customWidth="1"/>
     <col min="2" max="2" width="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="21" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="20" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="e" cm="1">
+      <c r="A61" s="20" t="e" cm="1">
         <f t="array" ref="A61">- Crédito pessoal consignado para servidores públicos: Operações de Crédito pessoal consignado</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
-        <v>131</v>
+      <c r="A62" s="20" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="e" cm="1">
+      <c r="A63" s="20" t="e" cm="1">
         <f t="array" ref="A63">- Crédito pessoal consignado para trabalhadores do setor privado: Operações de Crédito</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="22" t="s">
-        <v>132</v>
+      <c r="A64" s="20" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="22">
+      <c r="A65" s="20">
         <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="e" cm="1">
+      <c r="A66" s="20" t="e" cm="1">
         <f t="array" ref="A66">- Crédito pessoal consignado para beneficiários do INSS: Operações de Crédito pessoal</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="20" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="20" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="20" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="20" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="20" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="20" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="22" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="20" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="22" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="20" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="22" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="20" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="22" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="20" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="22" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="20" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="22" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="20" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="22" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="22" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="20" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="22" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="22" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="22" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="20" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="22" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="22" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="20" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="22" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="20" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="22" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="20" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="22" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="22" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="22" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="20" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="22" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="22" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="22" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="20" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="22" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="20" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="22" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="20" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="22" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="20" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="22" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="20" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="22" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="20" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="22" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="20" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="22" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="22" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="20" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="22" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="20" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="22" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="20" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="22" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="22" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="22" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="20" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="22" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="22" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="20" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="22" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="20" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="22" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="20" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="22" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="22" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="20" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="22" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="20" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="22" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="20" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="22" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="20" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="22" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="20" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="22" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="20" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="22" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="22" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="22" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="22" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/DicionarioDeDados-Financiamento.xlsx
+++ b/DicionarioDeDados-Financiamento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSDS\Documents\GitHub\Open-Banking-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSDS\Documents\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5CCE6D-3DEB-4915-9099-F0EA547D0876}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5012AC5F-7D80-4DC4-BCB9-F1C0B6FBEE5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FinanciamentosPF" sheetId="10" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="233">
   <si>
     <t>Xpath</t>
   </si>
@@ -121,9 +121,6 @@
     <t>serviceName</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>serviceCode</t>
   </si>
   <si>
@@ -166,10 +163,6 @@
     <t>^(\d{1})$</t>
   </si>
   <si>
-    <t>1. Pré
-2. Pós</t>
-  </si>
-  <si>
     <t>frequency</t>
   </si>
   <si>
@@ -180,9 +173,6 @@
   </si>
   <si>
     <t>incomeRateInfo</t>
-  </si>
-  <si>
-    <t>opcional</t>
   </si>
   <si>
     <t>Adiantamento a depositante</t>
@@ -655,22 +645,7 @@
     <t>Sigla de identificação do serviço relacionado à Modalidade de Financiamento informada, para pessoa física. Campo aberto. P. ex.  (Trazer a Exemplo)</t>
   </si>
   <si>
-    <t>aquisição de bens – veículos automotores
-aquisição de bens – outros bens
-microcrédito
-vendor
-compror
-cartão de crédito - compra ou fatura pela instituição financeira emitente do cartão
-financiamentos agroindustriais
-recebíveis adquiridos
-financiamento de projeto
-outros financiamentos</t>
-  </si>
-  <si>
     <t>^(\W{3}){1}$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modalidades de financiamentos ofertados para pessoas físicas, conforme Circular 4015-Bacen. Segundo cartilha do Bacen: Financiamento é um contrato entre o cliente e uma instituição financeira, mas com, destinação específica como para a aquisição de veículo ou de bem imóvel, que funcionam como garantia para o crédito concedido. p. ex. financiamento imobiliário e de veículos. </t>
   </si>
   <si>
     <t>Fatores geradores de cobrança que incidem sobre as Modalidades de Financiamentos, para pessoa física. Campo Livre Trazer Exemplo</t>
@@ -967,75 +942,6 @@
     <t>moeda (ISO-4217)</t>
   </si>
   <si>
-    <t>1.	cessão direitos creditórios – Duplicatas 
-2.	cessão direitos creditórios – Cheques
-3.	cessão direitos creditórios - fatura de cartão de crédito
-4.	cessão direitos creditórios - Aplicações financeiras – renda fixa
-5.	cessão direitos creditórios - Aplicações financeiras – renda variável
-6.	cessão direitos creditórios - Ações e debêntures
-7.	cessão direitos creditórios - Tributos e receitas orçamentárias
-8.	cessão direitos creditórios - Direitos sobre aluguéis
-9.	cessão direitos creditórios - Notas promissórias e outros direitos de crédito
-10.	caução – Duplicatas
-11.	caução – Cheques
-12.	caução – Fatura de cartão de crédito
-13.	caução – Aplicações financeiras – renda fixa 
-14.	caução – Aplicações financeiras – renda variável
-15.	caução – Ações e debêntures
-16.	caução – Tributos e receitas orçamentárias
-17.	caução – Direitos sobre aluguéis
-18.	caução – Depósito de títulos
-19.	caução – Depósitos à vista, depósitos a prazo, depósitos de poupança, em ouro ou em títulos público federais
-20.	caução – Notas promissórias e outros direitos de crédito
-21.	penhor – Duplicatas
-22.	penhor – Cheques
-23.	penhor – Fatura de cartão de crédito
-24.	penhor – Aplicações financeiras – renda fixa
-25.	penhor – Aplicações financeiras – renda variável
-26.	penhor - Ações e debêntures
-27.	penhor - Tributos e receitas orçamentárias
-28.	penhor - Direitos sobre aluguéis
-29.	alienação fiduciária – Equipamentos
-30.	alienação fiduciária – Veículos
-31.	alienação fiduciária - Imóveis residenciais
-32.	alienação fiduciária - Outros imóveis
-33.	alienação fiduciária - Bens e direitos integrantes de patrimônio de afetação
-34.	alienação fiduciária – Outros
-35.	hipoteca - Outros graus
-36.	hipoteca - Primeiro grau – imóveis residenciais
-37.	hipoteca - Primeiro grau – outros
-38.	hipoteca - Primeiro grau – bens e direitos integrantes de patrimônio de afetação 
-39.	operações garantidas pelo governo - Federal
-40.	operações garantidas pelo governo - Estadual ou distrital
-41.	operações garantidas pelo governo – Municipal
-42.	operações garantidas pelo governo – Garantia prestada pelo Tesouro Nacional ou pelo Banco Central
-43.	ouras garantias não fidejussórias
-44.	seguro e assemelhados - Seguro rural
-45.	seguro e assemelhados – Proagro
-46.	seguro e assemelhados - SBCE - Sociedade Brasileira de Crédito à Exportação
-47.	seguro e assemelhados - FCVS - Fundo de Compensação de Variações Salariais
-48.	seguro e assemelhados – Apólices de crédito à exportação
-49.	seguro e assemelhados - Fundo garantidor / de aval
-50.	seguro e assemelhados - CCR - Convênio de Créditos Recíprocos
-51.	seguro e assemelhados – FGPC - Fundo de Garantia p/ a Promoção da Competit
-52.	seguro e assemelhados - FGTS – Fundo de Garantia do Tempo de Serviço
-53.	seguro e assemelhados - FGI – Fundo Garantidor para Investimentos
-54.	outros seguros e assemelhados
-55.	garantia fidejussória – Pessoa física
-56.	garantia fidejussória – Pessoa jurídica
-57.	garantia fidejussória – Pessoa física no exterior
-58.	garantia fidejussória – Pessoa jurídica no exterior
-59.	bens arrendados – Veículos automotores
-60.	bens arrendados – outros bens
-61.	garantias internacionais – Mitigadoras
-62.	garantias internacionais – Não Mitigadoras
-63.	operações garantidas por outras entidades – Entidades listadas no artigo 19, inciso V da Circular nº 3.644 2013
-64.	operações garantidas por outras entidades – Garantia prestada por fundo ou quaisquer outros mecanismos de cobertura do crédito instituídos pela Constituição Federal
-65.	operações garantidas por outras entidades – Garantia prestada pelo FGPC
-66.	operações garantidas por outras entidades – Garantia prestada por fundos
-67.	acordos de compensação</t>
-  </si>
-  <si>
     <t>chargingTriggerInfo</t>
   </si>
   <si>
@@ -1043,9 +949,6 @@
   </si>
   <si>
     <t xml:space="preserve">Indica os tipos: mínimo, médio e máximo do valor informado. P.ex.'mínimo' </t>
-  </si>
-  <si>
-    <t>priceInfo</t>
   </si>
   <si>
     <t>Descrição de como é composto o valor da tarifa. p.ex. '0,25% sobre o excedente do limite acima de R$ 500,00'</t>
@@ -1085,9 +988,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Modalidades de financiamentos ofertados para pessoas jurídicas, conforme Circular 4015-Bacen. Segundo cartilha do Bacen: Financiamento é um contrato entre o cliente e uma instituição financeira, mas com, destinação específica como para a aquisição de veículo ou de bem imóvel, que funcionam como garantia para o crédito concedido. p. ex. financiamento imobiliário e de veículos. </t>
-  </si>
-  <si>
     <t>Nomes das Tarifas cobradas sobre Serviços ofertados à Modalidade de Financiamento, para pessoa jurídica. (Campo Livre) (trazer exemplo)</t>
   </si>
   <si>
@@ -1098,75 +998,6 @@
   </si>
   <si>
     <t>Descrição da Remuneração relativa as taxas de juros remuneratórias sobre a modalidade de Financiamento informada, para pessoa jurídica</t>
-  </si>
-  <si>
-    <t>1.	cessão direitos creditórios – Duplicatas 
-2.	cessão direitos creditórios – Cheques
-3.	cessão direitos creditórios - fatura de cartão de crédito
-4.	cessão direitos creditórios - Aplicações financeiras – renda fixa
-5.	cessão direitos creditórios - Aplicações financeiras – renda variável
-6.	cessão direitos creditórios - Ações e debêntures
-7.	cessão direitos creditórios - Tributos e receitas orçamentárias
-8.	cessão direitos creditórios - Direitos sobre aluguéis
-9.	cessão direitos creditórios - Notas promissórias e outros direitos de crédito
-10.	caução – Duplicatas
-11.	caução – Cheques
-12.	caução – Fatura de cartão de crédito
-13.	caução – Aplicações financeiras – renda fixa 
-14.	caução – Aplicações financeiras – renda variável
-15.	caução – Ações e debêntures
-16.	caução – Tributos e receitas orçamentárias
-17.	caução – Direitos sobre aluguéis
-18.	caução – Depósito de títulos
-19.	caução – Depósitos à vista, depósitos a prazo, depósitos de poupança, em ouro ou em títulos público federais
-20.	caução – Notas promissórias e outros direitos de crédito
-21.	penhor – Duplicatas
-22.	penhor – Cheques
-23.	penhor – Fatura de cartão de crédito
-24.	penhor – Aplicações financeiras – renda fixa
-25.	penhor – Aplicações financeiras – renda variável
-26.	penhor - Ações e debêntures
-27.	penhor - Tributos e receitas orçamentárias
-28.	penhor - Direitos sobre aluguéis
-29.	alienação fiduciária – Equipamentos
-30.	alienação fiduciária – Veículos
-31.	alienação fiduciária - Imóveis residenciais
-32.	alienação fiduciária - Outros imóveis
-33.	alienação fiduciária - Bens e direitos integrantes de patrimônio de afetação
-34.	alienação fiduciária – Outros
-35.	hipoteca - Outros graus
-36.	hipoteca - Primeiro grau – imóveis residenciais
-37.	hipoteca - Primeiro grau – outros
-38.	hipoteca - Primeiro grau – bens e direitos integrantes de patrimônio de afetação 
-39.	operações garantidas pelo governo - Federal
-40.	operações garantidas pelo governo - Estadual ou distrital
-41.	operações garantidas pelo governo – Municipal
-42.	operações garantidas pelo governo – Garantia prestada pelo Tesouro Nacional ou pelo Banco Central
-43.	ouras garantias não fidejussórias
-44.	seguro e assemelhados - Seguro rural
-45.	seguro e assemelhados – Proagro
-46.	seguro e assemelhados - SBCE - Sociedade Brasileira de Crédito à Exportação
-47.	seguro e assemelhados - FCVS - Fundo de Compensação de Variações Salariais
-48.	seguro e assemelhados – Apólices de crédito à exportação
-49.	seguro e assemelhados - Fundo garantidor / de aval
-50.	seguro e assemelhados - CCR - Convênio de Créditos Recíprocos
-51.	seguro e assemelhados – FGPC - Fundo de Garantia p/ a Promoção da Competit
-52.	seguro e assemelhados - FGTS – Fundo de Garantia do Tempo de Serviço
-53.	seguro e assemelhados - FGI – Fundo Garantidor para Investimentos
-54.	outros seguros e assemelhados
-55.	garantia fidejussória – Pessoa jurídica
-56.	garantia fidejussória – Pessoa jurídica
-57.	garantia fidejussória – Pessoa jurídica no exterior
-58.	garantia fidejussória – Pessoa jurídica no exterior
-59.	bens arrendados – Veículos automotores
-60.	bens arrendados – outros bens
-61.	garantias internacionais – Mitigadoras
-62.	garantias internacionais – Não Mitigadoras
-63.	operações garantidas por outras entidades – Entidades listadas no artigo 19, inciso V da Circular nº 3.644 2013
-64.	operações garantidas por outras entidades – Garantia prestada por fundo ou quaisquer outros mecanismos de cobertura do crédito instituídos pela Constituição Federal
-65.	operações garantidas por outras entidades – Garantia prestada pelo FGPC
-66.	operações garantidas por outras entidades – Garantia prestada por fundos
-67.	acordos de compensação</t>
   </si>
   <si>
     <t>Campo aberto para informar as condições contratuais relativas à Modalidade de Financiamento para pessoa jurídica. Pode ser informada a URL referente ao endereço onde constam as condições informadas</t>
@@ -1187,23 +1018,466 @@
     <t>a.d.
 a.m.
 a.a.</t>
+  </si>
+  <si>
+    <t>additionalInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquisição de bens – veículos automotores
+aquisição de bens – outros bens
+microcrédito produtivo orientado
+financiamentos rurais - custeio 
+financiamentos rurais - investimento
+financiamentos rurais - comercialização 
+financiamentos rurais - industrialização
+financimento imobiliário - Sistema Financeiro da Habitação (SFH) 
+financimento imobiliário - Sistema Financeiro da Habitação (SFI)
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Modalidades de financiamentos ofertados para pessoas físicas, conforme Circular 4015-Bacen. Segundo cartilha do Bacen: Financiamento é um contrato entre o cliente e uma instituição financeira, mas com, destinação específica como para a aquisição de veículo ou de bem imóvel, que funcionam como garantia para o crédito concedido. p. ex. financiamento imobiliário e de veículos. Sao eles segundo descrições obtidas junto ao Documento 3040 do Bacen:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">aquisição de bens – veículos automotores - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Financiamentos a pessoas físicas vinculadas à aquisição de bens veículos automotores, que tenham o bem financiado alienado fiduciariamente como garantia da operação
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">aquisição de bens – outros bens - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">destinados a financiar a aquisição de bens, serviços, máquinas e equipamentos, exceto veículos automotores
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">microcrédito Produtivo Orientado - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">segundo PNMPO é o crédito concedido para financiamento das atividades produtivas, cuja metodologia será estabelecida em regulamento, observada a preferência do relacionamento direto com os empreendedores, admitido o uso de tecnologias digitais e eletrônicas que possam substituir o contato presencial
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cartão de crédito – compra ou fatura parcelada pela instituição financeira emitente do cartão - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">financiamentos rurais - custeio - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">financiamentos concedidos a produtores rurais para custeio, tanto agrícolas quanto pecuários
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>financiamentos rurais - investimento -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> financiamentos concedidos a produtores rurais para investimento, tanto agrícolas quanto pecuários;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+financiamentos rurais - comercialização - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>financiamentos concedidos a produtores rurais para comercialização, tanto agrícolas quanto pecuários;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+financiamentos rurais - industrialização - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>financiamentos concedidos a produtores rurais para industrialização, tanto agrícolas quanto pecuários.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+financimento imobiliário - Sistema Financeiro da Habitação (SFH) -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> financiamento para aquisição ou construção de unidades habitacionais
+enquadradas no Sistema Financeiro de Habitação - SFH. O SFH foi criado pela Lei 4.380/64 e tem como característica a regulamentação das condições de financiamento imobiliário, por exemplo, taxa de juros, quota, prazos. O Governo Federal pode intervir em qualquer um dos aspectos do financiamento. Nesse sistema estão incluídas as operações contratadas com recursos do SBPE e do FGTS, inclusive o PMCMV (Programa Minha Casa, Minha Vida). As operações com recursos do FGTS observam, ainda, regulamentação própria. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+financimento imobiliário - Sistema Financeiro da Habitação (SFI) - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O SFI não possui regulamentação das condições de financiamento, sendo estas definidas pelo Agentes Financeiros</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Modalidades de financiamentos ofertados para pessoas jurídicas, conforme Circular 4015-Bacen. Segundo cartilha do Bacen: Financiamento é um contrato entre o cliente e uma instituição financeira, mas com, destinação específica como para a aquisição de veículo ou de bem imóvel, que funcionam como garantia para o crédito concedido. p. ex. financiamento imobiliário e de veículos. Sao eles segundo descrições obtidas junto ao Documento 3040 do Bacen:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aquisição de bens – veículos automotores -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Empréstimos destinados a financiar a compra de veículos automotores para manutenção ou aumento da capacidade produtiva das empresas contratantes, configurando-se como investimento 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aquisição de bens – outros bens -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> destinados a financiar a aquisição de bens, serviços, máquinas e equipamentos, exceto veículos automotores
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>microcrédito Produtivo Orientado -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> segundo PNMPO é o crédito concedido para financiamento das atividades produtivas, cuja metodologia será estabelecida em regulamento, observada a preferência do relacionamento direto com os empreendedores, admitido o uso de tecnologias digitais e eletrônicas que possam substituir o contato presencial
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">financiamentos rurais - custeio - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">financiamentos concedidos a produtores rurais para custeio, tanto agrícolas quanto pecuários
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>financiamentos rurais - investimento -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> financiamentos concedidos a produtores rurais para investimento, tanto agrícolas quanto pecuários; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>financiamentos rurai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">s - comercialização - financiamentos concedidos a produtores rurais para comercialização, tanto agrícolas quanto pecuários;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">financiamentos rurais - industrialização - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">financiamentos concedidos a produtores rurais para industrialização, tanto agrícolas quanto pecuários.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>financimento imobiliário - Sistema Financeiro da Habitação (SFH)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - financiamento para aquisição ou construção de unidades habitacionais enquadradas no Sistema Financeiro de Habitação - SFH - O SFH foi criado pela Lei 4.380/64 e tem como característica a regulamentação das condições de financiamento imobiliário, por exemplo, taxa de juros, quota, prazos. O Governo Federal pode intervir em qualquer um dos aspectos do financiamento. Nesse sistema estão incluídas as operações contratadas com recursos do SBPE e do FGTS, inclusive o PMCMV (Programa Minha Casa, Minha Vida). As operações com recursos do FGTS observam, ainda, regulamentação própria. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>financimento imobiliário - Sistema Financeiro da Habitação (SFI)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - O SFI não possui regulamentação das condições de financiamento, sendo estas definidas pelo Agentes Financeiros
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquisição de bens – veículos automotores
+Aquisição de bens – outros bens
+Microcrédito produtivo orientado
+Financiamentos rurais - custeio 
+Financiamentos rurais - investimento
+Financiamentos rurais - comercialização 
+Financiamentos rurais - industrialização
+Financimento imobiliário - Sistema Financeiro da Habitação (SFH) 
+Financimento imobiliário - Sistema Financeiro da Habitação (SFI)
+</t>
+  </si>
+  <si>
+    <t>Pré
+Pós</t>
+  </si>
+  <si>
+    <t>Cessão de direitos creditórios
+Caução
+Penhor
+Alienação fiduciária
+Hipoteca
+Operações garantidas pelo governo
+Outras garantias não fidejussórias
+Seguros e assemelhados
+Garantia fidejussória
+Bens arrendados
+Garantias internacionais
+Operações garantidas por outras entidades
+Acordos de compensação
+Não aplicável</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1216,65 +1490,18 @@
     </font>
     <font>
       <b/>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1304,57 +1531,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1364,86 +1542,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1727,788 +1863,791 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987C75EC-EA35-4B16-ACF7-D2E55CD1199E}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="93.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26" style="6" customWidth="1"/>
-    <col min="3" max="3" width="100.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="52.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.85546875" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="71" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="215.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="64.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.85546875" style="12" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="46"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="str">
+      <c r="A2" s="4" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/",B2)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/name</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="13">
         <v>30</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="22">
+      <c r="H2" s="5"/>
+      <c r="I2" s="11">
         <v>1</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="11">
         <v>1</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="47"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="str">
+      <c r="A3" s="5" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B3)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/name</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="13">
         <v>30</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="22">
+      <c r="H3" s="5"/>
+      <c r="I3" s="11">
         <v>1</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="11">
         <v>1</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="str">
+      <c r="A4" s="5" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B4)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/cnpjNumber</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="13">
         <v>14</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="I4" s="22">
+      <c r="G4" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I4" s="11">
         <v>1</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="11">
         <v>1</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="str">
+    <row r="5" spans="1:12" ht="263.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/",B5)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/types</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="13">
         <v>50</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="I5" s="22">
+      <c r="G5" s="5"/>
+      <c r="H5" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="I5" s="11">
         <v>1</v>
       </c>
-      <c r="J5" s="22">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="47"/>
-    </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="str">
+      <c r="J5" s="11">
+        <v>9</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" ht="263.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/",B6)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/serviceName</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="13">
         <v>50</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="22">
+      <c r="H6" s="6"/>
+      <c r="I6" s="11">
         <v>1</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" ht="263.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/",B7)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/serviceCode</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/personalFinancings/fees/",B7)</f>
-        <v>openBankingBrazil/&lt;organisations&gt;/companies/personalFinancings/fees/serviceCode</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="13">
         <v>30</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="22">
+      <c r="H7" s="5"/>
+      <c r="I7" s="11">
         <v>1</v>
       </c>
-      <c r="J7" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="str">
+      <c r="J7" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="263.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/",B8)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/chargingTriggerInfo</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="13">
         <v>2000</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="22">
+      <c r="H8" s="5"/>
+      <c r="I8" s="11">
         <v>1</v>
       </c>
-      <c r="J8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="10"/>
+      <c r="J8" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="str">
+      <c r="A9" s="4" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/price/",B9)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/price/type</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="13">
         <v>6</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="I9" s="22">
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="I9" s="11">
         <v>0</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="11">
         <v>3</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>216</v>
+      <c r="K9" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="str">
+      <c r="A10" s="4" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/price/",B10)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/price/value</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="13">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>3</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="37">
-        <v>12</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="22">
-        <v>0</v>
-      </c>
-      <c r="J10" s="22">
-        <v>3</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="str">
+      <c r="A11" s="4" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/price/",B11)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/price/currency</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="13">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>3</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/",B12)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/additionalInfo</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="13">
+        <v>80</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/",B13)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/changingUnit</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="13">
+        <v>50</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="11">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="str">
+        <f t="shared" ref="A14:A19" si="0">CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/",B14)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/rate</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="C14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="37">
-        <v>3</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="E14" s="13">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H14" s="14"/>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/referencialRate</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="16">
+        <v>7</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/indexer</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="16">
+        <v>30</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/prePostTax</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="16">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/frequency</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="13">
+        <v>4</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/incomeRateInfo</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H11" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="I11" s="22">
+      <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="13">
+        <v>2000</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
         <v>0</v>
       </c>
-      <c r="J11" s="22">
-        <v>3</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="str">
-        <f t="shared" ref="A12:A13" si="0">CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/personalFinancings/fees/",B12)</f>
-        <v>openBankingBrazil/&lt;organisations&gt;/companies/personalFinancings/fees/priceInfo</v>
-      </c>
-      <c r="B12" s="35" t="s">
+      <c r="J19" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="37">
-        <v>80</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="22">
-        <v>0</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisations&gt;/companies/personalFinancings/fees/changingUnit</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="37">
-        <v>50</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="22">
-        <v>1</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="str">
-        <f t="shared" ref="A14:A19" si="1">CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/",B14)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/rate</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="37">
-        <v>7</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="22">
-        <v>0</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/referencialRate</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="44">
-        <v>7</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="22">
-        <v>0</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/indexer</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="44">
-        <v>30</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="22">
-        <v>0</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/prePostTax</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="44">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="22">
-        <v>0</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/frequency</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="37">
-        <v>4</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="22">
-        <v>0</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/incomeRateInfo</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="37">
-        <v>2000</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="22">
-        <v>0</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="str">
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" ht="255" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/",B20)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/requiredWarranties</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="D20" s="25" t="s">
+      <c r="B20" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="13">
         <v>100</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="I20" s="22">
+      <c r="G20" s="5"/>
+      <c r="H20" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="I20" s="11">
         <v>1</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="11">
         <v>14</v>
       </c>
-      <c r="K20" s="10"/>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="str">
+      <c r="A21" s="4" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/",B21)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/termsConditions</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="B21" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="13">
         <v>2000</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="14" t="s">
+      <c r="F21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="22">
+      <c r="H21" s="14"/>
+      <c r="I21" s="11">
         <v>0</v>
       </c>
-      <c r="J21" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="10"/>
+      <c r="J21" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="10"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="10"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="7"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="10"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="12"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="10"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="10"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="10"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="10"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="23"/>
+      <c r="D27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2520,817 +2659,791 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="93.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26" style="6" customWidth="1"/>
-    <col min="3" max="3" width="100.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="52.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="126.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="66.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="46.85546875" style="12" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="str">
+      <c r="A2" s="4" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/",B2)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/name</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="13">
         <v>30</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9">
+      <c r="H2" s="5"/>
+      <c r="I2" s="11">
         <v>1</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="11">
         <v>1</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="13"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="str">
+      <c r="A3" s="5" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B3)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/name</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <v>30</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="9">
+      <c r="H3" s="5"/>
+      <c r="I3" s="11">
         <v>1</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="11">
         <v>1</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="str">
+      <c r="A4" s="5" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B4)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/cnpjNumber</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <v>14</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="I4" s="22">
+      <c r="G4" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I4" s="11">
         <v>1</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="11">
         <v>1</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="str">
+    </row>
+    <row r="5" spans="1:12" ht="390" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/",B5)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/types</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <v>50</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="G5" s="5"/>
+      <c r="H5" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I5" s="11">
         <v>1</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="13"/>
+      <c r="J5" s="11">
+        <v>9</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="str">
+      <c r="A6" s="4" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/",B6)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/serviceName</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="13">
         <v>50</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="9">
+      <c r="H6" s="6"/>
+      <c r="I6" s="11">
         <v>1</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="6"/>
+      <c r="J6" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/businessFinancings/fees/",B7)</f>
-        <v>openBankingBrazil/&lt;organisations&gt;/companies/businessFinancings/fees/serviceCode</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="A7" s="5" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/",B7)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/serviceCode</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="13">
         <v>30</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9">
+      <c r="H7" s="5"/>
+      <c r="I7" s="11">
         <v>1</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="str">
+      <c r="J7" s="11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/",B8)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/chargingTriggerInfo</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="13">
         <v>2000</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9">
+      <c r="H8" s="5"/>
+      <c r="I8" s="11">
         <v>1</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="J8" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="str">
+      <c r="A9" s="4" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/price/",B9)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/price/type</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="36" t="s">
+      <c r="B9" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="13">
         <v>6</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="I9" s="9">
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="I9" s="11">
         <v>0</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="11">
         <v>3</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="L9" s="6"/>
+      <c r="K9" s="6" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="str">
+      <c r="A10" s="4" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/price/",B10)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/price/value</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="13">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>3</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="37">
-        <v>12</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>3</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="str">
+      <c r="A11" s="4" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/price/",B11)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/price/currency</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="13">
         <v>3</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H11" s="38" t="s">
+      <c r="F11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>3</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/",B12)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/additionalInfo</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="13">
+        <v>80</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/",B13)</f>
+        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/changingUnit</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>3</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/businessFinancings/fees/",B12)</f>
-        <v>openBankingBrazil/&lt;organisations&gt;/companies/businessFinancings/fees/priceInfo</v>
-      </c>
-      <c r="B12" s="35" t="s">
+      <c r="C13" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="13">
+        <v>50</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="11">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="37">
-        <v>80</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisations&gt;/companies/businessFinancings/fees/",B13)</f>
-        <v>openBankingBrazil/&lt;organisations&gt;/companies/businessFinancings/fees/changingUnit</v>
-      </c>
-      <c r="B13" s="35" t="s">
+      <c r="K13" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="37">
-        <v>50</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="9">
-        <v>1</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="str">
+      <c r="A14" s="4" t="str">
         <f t="shared" ref="A14:A19" si="0">CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/interestRates/",B14)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/interestRates/rate</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="13">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="22">
-        <v>7</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="9">
+      <c r="H14" s="14"/>
+      <c r="I14" s="11">
         <v>0</v>
       </c>
-      <c r="J14" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="6"/>
+      <c r="J14" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="str">
+      <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/interestRates/referencialRate</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="16">
         <v>7</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="9">
+      <c r="H15" s="14"/>
+      <c r="I15" s="11">
         <v>0</v>
       </c>
-      <c r="J15" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="6"/>
+      <c r="J15" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="str">
+      <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/interestRates/indexer</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="16">
         <v>30</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="30" t="s">
+      <c r="F16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="9">
+      <c r="H16" s="14"/>
+      <c r="I16" s="11">
         <v>0</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="str">
+      <c r="J16" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/interestRates/prePostTax</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="16">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="24">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="9">
+      <c r="H17" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="I17" s="11">
         <v>0</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="str">
+      <c r="J17" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/interestRates/frequency</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="13">
+        <v>4</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="22">
-        <v>4</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="I18" s="9">
+      <c r="H18" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="I18" s="11">
         <v>0</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="str">
+      <c r="J18" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/interestRates/incomeRateInfo</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="B19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="13">
         <v>2000</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="14" t="s">
+      <c r="F19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9">
+      <c r="H19" s="5"/>
+      <c r="I19" s="11">
         <v>0</v>
       </c>
-      <c r="J19" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="str">
+      <c r="J19" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" ht="360" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/",B20)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/requiredWarranties</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="D20" s="25" t="s">
+      <c r="B20" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="13">
         <v>100</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="I20" s="9">
+      <c r="G20" s="15"/>
+      <c r="H20" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="I20" s="15">
         <v>1</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="15">
         <v>14</v>
       </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="str">
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/",B21)</f>
         <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/termsConditions</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="B21" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="13">
         <v>2000</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="14" t="s">
+      <c r="F21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="9">
+      <c r="H21" s="14"/>
+      <c r="I21" s="11">
         <v>0</v>
       </c>
-      <c r="J21" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="10"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="7"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="10"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="6"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="6"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="6"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="23"/>
+      <c r="J21" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="12"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3353,112 +3466,112 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3470,698 +3583,698 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46" style="20" customWidth="1"/>
+    <col min="1" max="1" width="46" style="3" customWidth="1"/>
     <col min="2" max="2" width="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="19" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="18" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="20" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="20" t="s">
-        <v>123</v>
-      </c>
-    </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="e" cm="1">
+      <c r="A61" s="3" t="e" cm="1">
         <f t="array" ref="A61">- Crédito pessoal consignado para servidores públicos: Operações de Crédito pessoal consignado</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
-        <v>124</v>
+      <c r="A62" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="e" cm="1">
+      <c r="A63" s="3" t="e" cm="1">
         <f t="array" ref="A63">- Crédito pessoal consignado para trabalhadores do setor privado: Operações de Crédito</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="20" t="s">
-        <v>125</v>
+      <c r="A64" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="20">
+      <c r="A65" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="e" cm="1">
+      <c r="A66" s="3" t="e" cm="1">
         <f t="array" ref="A66">- Crédito pessoal consignado para beneficiários do INSS: Operações de Crédito pessoal</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="20" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="20" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="20" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="20" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="20" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="20" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="20" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="20" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="20" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="20" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="20" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="20" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="20" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="20" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="20" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="20" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="20" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="20" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="20" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="20" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="20" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="20" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="20" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="20" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="20" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="20" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="20" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="20" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="20" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="20" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="20" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="20" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="20" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="20" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="20" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="20" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="20" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="20" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="20" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="20" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="20" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="20" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="20" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="20" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="20" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="20" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="20" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="20" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="20" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="20" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="20" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="20" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="20" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="20" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="20" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="20" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="20" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/DicionarioDeDados-Financiamento.xlsx
+++ b/DicionarioDeDados-Financiamento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSDS\Documents\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSDS\Documents\GitHub\Open-Banking-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5012AC5F-7D80-4DC4-BCB9-F1C0B6FBEE5C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B045F201-85FF-47F5-8F40-5B009D2DDB26}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FinanciamentosPF" sheetId="10" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="233">
   <si>
     <t>Xpath</t>
   </si>
@@ -94,9 +94,6 @@
     <t>name</t>
   </si>
   <si>
-    <t xml:space="preserve">Nome do conglomerado. P.ex. 'Organização A' </t>
-  </si>
-  <si>
     <t>Texto</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>types</t>
   </si>
   <si>
-    <t>Enum</t>
-  </si>
-  <si>
     <t>serviceName</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
     <t>rate</t>
   </si>
   <si>
-    <t>Percentual que incide sobre a composição das taxas de juros remuneratórias</t>
-  </si>
-  <si>
     <t>Opcional</t>
   </si>
   <si>
@@ -160,16 +151,10 @@
     <t>Indicador de pré ou pós. A diferença básica é que, enquanto o prefixado apresenta rentabilidade definida, o pós-fixado acompanha algum indicador. Assim, quem investe no primeiro grupo sabe como será seu rendimento previamente, enquanto quem investe no segundo, só conhecerá os resultados na data de vencimento</t>
   </si>
   <si>
-    <t>^(\d{1})$</t>
-  </si>
-  <si>
     <t>frequency</t>
   </si>
   <si>
     <t>Código que indica Frequência sobre a qual incide a Remuneração. P. ex. 'a.d.', 'a.m.', 'a.a.'</t>
-  </si>
-  <si>
-    <t>^(a\.[d,m,a]\.){1}$</t>
   </si>
   <si>
     <t>incomeRateInfo</t>
@@ -634,311 +619,21 @@
     <t>Sigla de identificação do serviço relacionado à Modalidade de Financiamento informada, para pessoa jurídica. Campo aberto. P. ex.  (Trazer a Exemplo)</t>
   </si>
   <si>
-    <t>Nome da Instituição, pertencente à organização, responsável pela comercialização das modalidades de Financiamentos para Pessoas Físicas consultadas. Ex. 'Empresa da Organização A'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O responsável pela comercialização das modalidades de Financiamentos para Pessoas Físicas consultadas - o CNPJ corresponde ao número de inscrição no Cadastro de Pessoa Jurídica. Composto por: os oito primeiros números à esquerda (XX. XXX. XXX) formam a "raiz" ou base, que identifica a empresa de forma única. Os quatro seguintes números de ordem das filiais da empresa. Normalmente a empresa matriz tem este campo preenchido com '0001'. Os dois últimos números correspondem ao dígito verificador.  Composição do CNPJ pode ser assim representada, conforme ex. '50.685.362/0001-35'.
-Deve-se ter apenas os números do CNPJ, sem máscara.
-</t>
-  </si>
-  <si>
     <t>Sigla de identificação do serviço relacionado à Modalidade de Financiamento informada, para pessoa física. Campo aberto. P. ex.  (Trazer a Exemplo)</t>
   </si>
   <si>
     <t>^(\W{3}){1}$</t>
   </si>
   <si>
-    <t>Fatores geradores de cobrança que incidem sobre as Modalidades de Financiamentos, para pessoa física. Campo Livre Trazer Exemplo</t>
-  </si>
-  <si>
     <t>Campo aberto para informar as condições contratuais relativas à Modalidade de Financiamento para pessoa física. Pode ser informada a URL referente ao endereço onde constam as condições informadas</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Relação de garantias exigidas, segundo documento 3040 do Bacen: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cessão de direitos creditórios</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: o cedente transfere ao credor/cessionário a titularidade de direitos creditórios, até a liquidação da dívida. O credor/cessionário passa a recebê-los diretamente dos devedores e credita o produto da operação para o cedente na operação que originou a cessão, até a sua liquidação, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>caução</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: garantia instituída sobre créditos do garantidor, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>penhor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: direito real que consiste na tradição de uma coisa móvel ou mobilizável, suscetível de alienação, realizada pelo devedor ou por terceiro ao credor, a fim de garantir o pagamento do débito, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>alienação fiduciária</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: o cedente transfere ao credor/cessionário a titularidade de direitos creditórios, até a liquidação da dívida. O credor/cessionário passa a recebê-los diretamente dos devedores e credita o produto da operação para o cedente na operação que originou a cessão, até a sua liquidação. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hipoteca</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: direito real de garantia que afeta um bem imóvel para o cumprimento da obrigação. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>operações garantidas pelo governo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: nas instâncias federal, estadual ou municipal
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>outras garantias não fidejussórias</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: as garantias reais não descritas como: cessão de direitos creditórios, caução, penhor, alienação fiduciária, hipoteca ou operação garantida pelo governo 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>seguros e assemelhados</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: os seguros (e assemelhados) contratados para garantir o pagamento da operação em circunstâncias adversas.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>garantia fidejussória</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: baseada na fidelidade do garantidor em cumprir as obrigações, caso o devedor não o faça.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bens arrendados</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: bem objeto do arrendamento financeiro.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>garantias internacionais</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: declarar se a garantia é mitigadora ou não, observados os critérios definidos pela Circular 3.644, de 4 de março de 2013. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>operações garantidas por outras entidade</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: declarar as garantias prestadas pelas entidades descritas no item 3. Informações de Garantias (i) do documento 3040 - Bacen. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>acordos de compensação</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: operações que sejam abrangidas por acordos para a compensação e liquidação de obrigações no âmbito do SFN, nos termos da Resolução 3.263, de 24 de fevereiro de 2005. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>não aplicável</t>
-    </r>
-  </si>
-  <si>
     <t>Descrição da Remuneração relativa as taxas de juros remuneratórias sobre a modalidade de Financiamento informada, para pessoa física</t>
   </si>
   <si>
     <t>^(\d{14})$</t>
   </si>
   <si>
-    <t>Números de 0 a 9 sem formatação</t>
-  </si>
-  <si>
     <t>moeda (ISO-4217)</t>
   </si>
   <si>
@@ -948,9 +643,6 @@
     <t>value</t>
   </si>
   <si>
-    <t xml:space="preserve">Indica os tipos: mínimo, médio e máximo do valor informado. P.ex.'mínimo' </t>
-  </si>
-  <si>
     <t>Descrição de como é composto o valor da tarifa. p.ex. '0,25% sobre o excedente do limite acima de R$ 500,00'</t>
   </si>
   <si>
@@ -960,17 +652,6 @@
     <t>Unidade ou forma de cobrança. P.ex. 'Por mês'</t>
   </si>
   <si>
-    <t>Mínimo
-Médio
-Máximo</t>
-  </si>
-  <si>
-    <t>Este campo deve estar obrigatoriamente preenchido se não houver conteúdo para o item priceInfo</t>
-  </si>
-  <si>
-    <t>Valor da tarifa cobrada, relativa ao serviço ofertado para a Modalidade de Empréstimo, para pessoa física. P.ex. 45,00</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -983,18 +664,10 @@
     <t>Nome da Instituição, pertencente à organização, responsável pela comercialização das modalidades de Financiamentos para Pessoas jurídicas consultadas. Ex. 'Empresa da Organização A'</t>
   </si>
   <si>
-    <t xml:space="preserve">O responsável pela comercialização das modalidades de Financiamentos para Pessoas jurídicas consultadas - o CNPJ corresponde ao número de inscrição no Cadastro de Pessoa Jurídica. Composto por: os oito primeiros números à esquerda (XX. XXX. XXX) formam a "raiz" ou base, que identifica a empresa de forma única. Os quatro seguintes números de ordem das filiais da empresa. Normalmente a empresa matriz tem este campo preenchido com '0001'. Os dois últimos números correspondem ao dígito verificador.  Composição do CNPJ pode ser assim representada, conforme ex. '50.685.362/0001-35'.
-Deve-se ter apenas os números do CNPJ, sem máscara.
-</t>
-  </si>
-  <si>
     <t>Nomes das Tarifas cobradas sobre Serviços ofertados à Modalidade de Financiamento, para pessoa jurídica. (Campo Livre) (trazer exemplo)</t>
   </si>
   <si>
     <t>Fatores geradores de cobrança que incidem sobre as Modalidades de Financiamentos, para pessoa jurídica. Campo Livre Trazer Exemplo</t>
-  </si>
-  <si>
-    <t>Valor da tarifa cobrada, relativa ao serviço ofertado para a Modalidade de Empréstimo, para pessoa jurídica. P.ex. 45,00</t>
   </si>
   <si>
     <t>Descrição da Remuneração relativa as taxas de juros remuneratórias sobre a modalidade de Financiamento informada, para pessoa jurídica</t>
@@ -1021,433 +694,6 @@
   </si>
   <si>
     <t>additionalInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aquisição de bens – veículos automotores
-aquisição de bens – outros bens
-microcrédito produtivo orientado
-financiamentos rurais - custeio 
-financiamentos rurais - investimento
-financiamentos rurais - comercialização 
-financiamentos rurais - industrialização
-financimento imobiliário - Sistema Financeiro da Habitação (SFH) 
-financimento imobiliário - Sistema Financeiro da Habitação (SFI)
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Modalidades de financiamentos ofertados para pessoas físicas, conforme Circular 4015-Bacen. Segundo cartilha do Bacen: Financiamento é um contrato entre o cliente e uma instituição financeira, mas com, destinação específica como para a aquisição de veículo ou de bem imóvel, que funcionam como garantia para o crédito concedido. p. ex. financiamento imobiliário e de veículos. Sao eles segundo descrições obtidas junto ao Documento 3040 do Bacen:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">aquisição de bens – veículos automotores - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Financiamentos a pessoas físicas vinculadas à aquisição de bens veículos automotores, que tenham o bem financiado alienado fiduciariamente como garantia da operação
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">aquisição de bens – outros bens - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">destinados a financiar a aquisição de bens, serviços, máquinas e equipamentos, exceto veículos automotores
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">microcrédito Produtivo Orientado - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">segundo PNMPO é o crédito concedido para financiamento das atividades produtivas, cuja metodologia será estabelecida em regulamento, observada a preferência do relacionamento direto com os empreendedores, admitido o uso de tecnologias digitais e eletrônicas que possam substituir o contato presencial
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">cartão de crédito – compra ou fatura parcelada pela instituição financeira emitente do cartão - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">financiamentos rurais - custeio - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">financiamentos concedidos a produtores rurais para custeio, tanto agrícolas quanto pecuários
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>financiamentos rurais - investimento -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> financiamentos concedidos a produtores rurais para investimento, tanto agrícolas quanto pecuários;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-financiamentos rurais - comercialização - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>financiamentos concedidos a produtores rurais para comercialização, tanto agrícolas quanto pecuários;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-financiamentos rurais - industrialização - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>financiamentos concedidos a produtores rurais para industrialização, tanto agrícolas quanto pecuários.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-financimento imobiliário - Sistema Financeiro da Habitação (SFH) -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> financiamento para aquisição ou construção de unidades habitacionais
-enquadradas no Sistema Financeiro de Habitação - SFH. O SFH foi criado pela Lei 4.380/64 e tem como característica a regulamentação das condições de financiamento imobiliário, por exemplo, taxa de juros, quota, prazos. O Governo Federal pode intervir em qualquer um dos aspectos do financiamento. Nesse sistema estão incluídas as operações contratadas com recursos do SBPE e do FGTS, inclusive o PMCMV (Programa Minha Casa, Minha Vida). As operações com recursos do FGTS observam, ainda, regulamentação própria. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-financimento imobiliário - Sistema Financeiro da Habitação (SFI) - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O SFI não possui regulamentação das condições de financiamento, sendo estas definidas pelo Agentes Financeiros</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Modalidades de financiamentos ofertados para pessoas jurídicas, conforme Circular 4015-Bacen. Segundo cartilha do Bacen: Financiamento é um contrato entre o cliente e uma instituição financeira, mas com, destinação específica como para a aquisição de veículo ou de bem imóvel, que funcionam como garantia para o crédito concedido. p. ex. financiamento imobiliário e de veículos. Sao eles segundo descrições obtidas junto ao Documento 3040 do Bacen:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>aquisição de bens – veículos automotores -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Empréstimos destinados a financiar a compra de veículos automotores para manutenção ou aumento da capacidade produtiva das empresas contratantes, configurando-se como investimento 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>aquisição de bens – outros bens -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> destinados a financiar a aquisição de bens, serviços, máquinas e equipamentos, exceto veículos automotores
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>microcrédito Produtivo Orientado -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> segundo PNMPO é o crédito concedido para financiamento das atividades produtivas, cuja metodologia será estabelecida em regulamento, observada a preferência do relacionamento direto com os empreendedores, admitido o uso de tecnologias digitais e eletrônicas que possam substituir o contato presencial
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">financiamentos rurais - custeio - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">financiamentos concedidos a produtores rurais para custeio, tanto agrícolas quanto pecuários
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>financiamentos rurais - investimento -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> financiamentos concedidos a produtores rurais para investimento, tanto agrícolas quanto pecuários; 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>financiamentos rurai</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">s - comercialização - financiamentos concedidos a produtores rurais para comercialização, tanto agrícolas quanto pecuários;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">financiamentos rurais - industrialização - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">financiamentos concedidos a produtores rurais para industrialização, tanto agrícolas quanto pecuários.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>financimento imobiliário - Sistema Financeiro da Habitação (SFH)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - financiamento para aquisição ou construção de unidades habitacionais enquadradas no Sistema Financeiro de Habitação - SFH - O SFH foi criado pela Lei 4.380/64 e tem como característica a regulamentação das condições de financiamento imobiliário, por exemplo, taxa de juros, quota, prazos. O Governo Federal pode intervir em qualquer um dos aspectos do financiamento. Nesse sistema estão incluídas as operações contratadas com recursos do SBPE e do FGTS, inclusive o PMCMV (Programa Minha Casa, Minha Vida). As operações com recursos do FGTS observam, ainda, regulamentação própria. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>financimento imobiliário - Sistema Financeiro da Habitação (SFI)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - O SFI não possui regulamentação das condições de financiamento, sendo estas definidas pelo Agentes Financeiros
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Aquisição de bens – veículos automotores
-Aquisição de bens – outros bens
-Microcrédito produtivo orientado
-Financiamentos rurais - custeio 
-Financiamentos rurais - investimento
-Financiamentos rurais - comercialização 
-Financiamentos rurais - industrialização
-Financimento imobiliário - Sistema Financeiro da Habitação (SFH) 
-Financimento imobiliário - Sistema Financeiro da Habitação (SFI)
-</t>
   </si>
   <si>
     <t>Pré
@@ -1469,12 +715,1082 @@
 Acordos de compensação
 Não aplicável</t>
   </si>
+  <si>
+    <t xml:space="preserve">O responsável pela comercialização das modalidades de Financiamentos para Pessoas Físicas consultadas - o CNPJ corresponde ao número de inscrição no Cadastro de Pessoa Jurídica. 
+Deve-se ter apenas os números do CNPJ, sem máscara.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O responsável pela comercialização das modalidades de Financiamentos para Pessoas jurídicas consultadas - o CNPJ corresponde ao número de inscrição no Cadastro de Pessoa Jurídica. 
+Deve-se ter apenas os números do CNPJ, sem máscara.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Modalidades de financiamentos ofertados para pessoas jurídicas, conforme Circular 4015-Bacen. Segundo cartilha do Bacen: Financiamento é um contrato entre o cliente e uma instituição financeira, mas com, destinação específica como para a aquisição de veículo ou de bem imóvel, que funcionam como garantia para o crédito concedido. p. ex. financiamento imobiliário e de veículos. Sao eles segundo descrições obtidas junto ao Documento 3040 do Bacen:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aquisição de bens – veículos automotores -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Empréstimos destinados a financiar a compra de veículos automotores para manutenção ou aumento da capacidade produtiva das empresas contratantes, configurando-se como investimento 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aquisição de bens – outros bens -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> destinados a financiar a aquisição de bens, serviços, máquinas e equipamentos, exceto veículos automotores
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>microcrédito -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> operação de crédito realizada para financiamento de atividades produtivas de pessoas naturais ou jurídicas, organizadas de forma individual ou coletiva, com renda ou receita bruta anual de até R$200.000,00 (duzentos mil reais)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">financiamentos rurais - custeio - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">financiamentos concedidos a produtores rurais para custeio, tanto agrícolas quanto pecuários
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>financiamentos rurais - investimento -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> financiamentos concedidos a produtores rurais para investimento, tanto agrícolas quanto pecuários; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>financiamentos rurai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">s - comercialização - financiamentos concedidos a produtores rurais para comercialização, tanto agrícolas quanto pecuários;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">financiamentos rurais - industrialização - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">financiamentos concedidos a produtores rurais para industrialização, tanto agrícolas quanto pecuários.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>financimento imobiliário - Sistema Financeiro da Habitação (SFH)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - financiamento para aquisição ou construção de unidades habitacionais enquadradas no Sistema Financeiro de Habitação - SFH - O SFH foi criado pela Lei 4.380/64 e tem como característica a regulamentação das condições de financiamento imobiliário, por exemplo, taxa de juros, quota, prazos. O Governo Federal pode intervir em qualquer um dos aspectos do financiamento. Nesse sistema estão incluídas as operações contratadas com recursos do SBPE e do FGTS, inclusive o PMCMV (Programa Minha Casa, Minha Vida). As operações com recursos do FGTS observam, ainda, regulamentação própria. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>financimento imobiliário - Sistema Financeiro da Habitação (SFI)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - O SFI não possui regulamentação das condições de financiamento, sendo estas definidas pelo Agentes Financeiros
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Relação de garantias exigidas, segundo documento 3040 do Bacen: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cessão de direitos creditórios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: o cedente transfere ao credor/cessionário a titularidade de direitos creditórios, até a liquidação da dívida. O credor/cessionário passa a recebê-los diretamente dos devedores e credita o produto da operação para o cedente na operação que originou a cessão, até a sua liquidação
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>caução</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: garantia instituída sobre créditos do garantidor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>penhor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: direito real que consiste na tradição de uma coisa móvel ou mobilizável, suscetível de alienação, realizada pelo devedor ou por terceiro ao credor, a fim de garantir o pagamento do débito
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alienação fiduciária</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: o cedente transfere ao credor/cessionário a titularidade de direitos creditórios, até a liquidação da dívida. O credor/cessionário passa a recebê-los diretamente dos devedores e credita o produto da operação para o cedente na operação que originou a cessão, até a sua liquidação 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hipoteca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: direito real de garantia que afeta um bem imóvel para o cumprimento da obrigação
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>operações garantidas pelo governo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nas instâncias federal, estadual ou municipal
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>outras garantias não fidejussórias</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: as garantias reais não descritas como: cessão de direitos creditórios, caução, penhor, alienação fiduciária, hipoteca ou operação garantida pelo governo 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>seguros e assemelhados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: os seguros (e assemelhados) contratados para garantir o pagamento da operação em circunstâncias adversas.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>garantia fidejussória</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: baseada na fidelidade do garantidor em cumprir as obrigações, caso o devedor não o faça
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bens arrendados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: bem objeto do arrendamento financeiro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>garantias internacionais</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: declarar se a garantia é mitigadora ou não, observados os critérios definidos pela Circular 3.644, de 4 de março de 2013
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>operações garantidas por outras entidade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: declarar as garantias prestadas pelas entidades descritas no item 3. Informações de Garantias (i) do documento 3040 - Bacen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>acordos de compensação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: operações que sejam abrangidas por acordos para a compensação e liquidação de obrigações no âmbito do SFN, nos termos da Resolução 3.263, de 24 de fevereiro de 2005
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não aplicável</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Relação de garantias exigidas, segundo documento 3040 do Bacen: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cessão de direitos creditórios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: o cedente transfere ao credor/cessionário a titularidade de direitos creditórios, até a liquidação da dívida. O credor/cessionário passa a recebê-los diretamente dos devedores e credita o produto da operação para o cedente na operação que originou a cessão, até a sua liquidação, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>caução</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: garantia instituída sobre créditos do garantidor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>penhor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: direito real que consiste na tradição de uma coisa móvel ou mobilizável, suscetível de alienação, realizada pelo devedor ou por terceiro ao credor, a fim de garantir o pagamento do débito
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alienação fiduciária</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: o cedente transfere ao credor/cessionário a titularidade de direitos creditórios, até a liquidação da dívida. O credor/cessionário passa a recebê-los diretamente dos devedores e credita o produto da operação para o cedente na operação que originou a cessão, até a sua liquidação
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hipoteca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: direito real de garantia que afeta um bem imóvel para o cumprimento da obrigação
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>operações garantidas pelo governo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nas instâncias federal, estadual ou municipal
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>outras garantias não fidejussórias</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: as garantias reais não descritas como: cessão de direitos creditórios, caução, penhor, alienação fiduciária, hipoteca ou operação garantida pelo governo 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>seguros e assemelhados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: os seguros (e assemelhados) contratados para garantir o pagamento da operação em circunstâncias adversas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>garantia fidejussória</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: baseada na fidelidade do garantidor em cumprir as obrigações, caso o devedor não o faça
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bens arrendados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: bem objeto do arrendamento financeiro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>garantias internacionais</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: declarar se a garantia é mitigadora ou não, observados os critérios definidos pela Circular 3.644, de 4 de março de 2013
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>operações garantidas por outras entidade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: declarar as garantias prestadas pelas entidades descritas no item 3. Informações de Garantias (i) do documento 3040 - Bacen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>acordos de compensação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: operações que sejam abrangidas por acordos para a compensação e liquidação de obrigações no âmbito do SFN, nos termos da Resolução 3.263, de 24 de fevereiro de 2005 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não aplicável</t>
+    </r>
+  </si>
+  <si>
+    <t>Nome da Instituição, pertencente à marca, responsável pela comercialização das modalidades de Financiamentos para Pessoas Físicas consultadas. Ex. 'Empresa da Organização A'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financiamento-Aquisição de bens – veículos automotores
+Financiamento-Aquisição de bens – outros bens
+Fianciamento-Microcrédito
+Financiamento rural-custeio 
+Financiamento rural-investimento
+Financiamento rural-comercialização 
+Financiamento rural-industrialização
+Financimento imobiliário-Sistema Financeiro da Habitação (SFH) 
+Financimento imobiliário-Sistema Financeiro da Habitação (SFI)
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Modalidades de financiamentos ofertados para pessoas físicas, conforme Circular 4015-Bacen. Segundo cartilha do Bacen: Financiamento é um contrato entre o cliente e uma instituição financeira, mas com, destinação específica como para a aquisição de veículo ou de bem imóvel, que funcionam como garantia para o crédito concedido. p. ex. financiamento imobiliário e de veículos. Sao eles segundo descrições obtidas junto ao Documento 3040 do Bacen:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">financiamento-aquisição de bens – veículos automotores - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Financiamentos a pessoas físicas vinculadas à aquisição de bens veículos automotores, que tenham o bem financiado alienado fiduciariamente como garantia da operação
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">financiamento-aquisição de bens – outros bens - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">destinados a financiar a aquisição de bens, serviços, máquinas e equipamentos, exceto veículos automotores
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">financiamento-microcrédito - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>operação de crédito realizada para financiamento de atividades produtivas de pessoas naturais ou jurídicas, organizadas de forma individual ou coletiva, com renda ou receita bruta anual de até R$200.000,00 (duzentos mil reais)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">financiamento rural-custeio - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">financiamentos concedidos a produtores rurais para custeio, tanto agrícolas quanto pecuários
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>financiamento rural-investimento -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> financiamentos concedidos a produtores rurais para investimento, tanto agrícolas quanto pecuários;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+financiamento rural-comercialização - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>financiamentos concedidos a produtores rurais para comercialização, tanto agrícolas quanto pecuários;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+financiamento rural-industrialização - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>financiamentos concedidos a produtores rurais para industrialização, tanto agrícolas quanto pecuários.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+financimento imobiliário-Sistema Financeiro da Habitação (SFH) -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> financiamento para aquisição ou construção de unidades habitacionais
+enquadradas no Sistema Financeiro de Habitação - SFH. O SFH foi criado pela Lei 4.380/64 e tem como característica a regulamentação das condições de financiamento imobiliário, por exemplo, taxa de juros, quota, prazos. O Governo Federal pode intervir em qualquer um dos aspectos do financiamento. Nesse sistema estão incluídas as operações contratadas com recursos do SBPE e do FGTS, inclusive o PMCMV (Programa Minha Casa, Minha Vida). As operações com recursos do FGTS observam, ainda, regulamentação própria. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+financimento imobiliário-Sistema Financeiro da Habitação (SFI) - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O SFI não possui regulamentação das condições de financiamento, sendo estas definidas pelo Agentes Financeiros</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Nome da Marca reportada pelo participante do Open Banking. O conceito a que se refere a 'marca' utilizada está em definição pelos participantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatores geradores de cobrança que incidem sobre as Modalidades de Financiamentos, para pessoa física. Campo Livre </t>
+  </si>
+  <si>
+    <t>Indica o tipo de valor referente a tarifa do serviço informado: mínimo, 1º quartil de clientes, 2º quartil de clientes, 3º quartil de clientes e 4º quartil de clientes</t>
+  </si>
+  <si>
+    <t>\W*</t>
+  </si>
+  <si>
+    <t>mínimo'
+'1º quartil de clientes'
+'2º quartil de clientes'
+'3º quartil de clientes'
+'4º quartil de clientes'</t>
+  </si>
+  <si>
+    <t>Este campo deve estar obrigatoriamente preenchido</t>
+  </si>
+  <si>
+    <t>Valor da tarifa cobrada, relativa ao serviço ofertado para a Modalidade de Financiamento, para pessoa física. p.ex. 45.00
+(representa um valor monetário Ex: 1547368.92 (O valor ao lado, considerando que a moeda seja BRL, significa R$ 1.547.368,92). O único separador presente deverá ser o . (ponto) para casa decimal. Não deve haver separador de milhar)</t>
+  </si>
+  <si>
+    <t>Percentual que incide sobre a composição das taxas de juros remuneratórias
+(representa uma porcentagem Ex: 0.15 (O valor ao lado representa 15%. O valor 1 representa 100%)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cessão de direitos creditórios
+Caução
+Penhor
+Alienação fiduciária
+Hipoteca
+Operações garantidas pelo governo
+Outras garantias não fidejussórias
+Seguros e assemelhados
+Garantia fidejussória
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bens arrendados
+Garantias internacionais
+Operações garantidas por outras entidades
+Acordos de compensação
+Não aplicável</t>
+    </r>
+  </si>
+  <si>
+    <t>Percentual que incide sobre a composição das taxas de juros remuneratórias.
+(representa uma porcentagem Ex: 0.15 (O valor ao lado representa 15%. O valor 1 representa 100%)</t>
+  </si>
+  <si>
+    <t>Valor da tarifa cobrada, relativa ao serviço ofertado para a Modalidade de Financiamento, para pessoa jurídica. p.ex. 45.00
+(representa um valor monetário Ex: 1547368.92 (O valor ao lado, considerando que a moeda seja BRL, significa R$ 1.547.368,92). O único separador presente deverá ser o . (ponto) para casa decimal. Não deve haver separador de milhar)</t>
+  </si>
+  <si>
+    <t>Números de 0 a 9.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1495,13 +1811,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1531,7 +1868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1580,6 +1917,51 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1863,23 +2245,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987C75EC-EA35-4B16-ACF7-D2E55CD1199E}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="83.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="215.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="4" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="13" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="30.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="64.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="45.140625" style="4" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="46.85546875" style="12" customWidth="1"/>
@@ -1924,26 +2306,26 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/",B2)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/name</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/",B2)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/name</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="13">
         <v>30</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="11">
@@ -1953,32 +2335,32 @@
         <v>1</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B3)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/name</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/",B3)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/name</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="13">
         <v>30</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="11">
@@ -1988,34 +2370,34 @@
         <v>1</v>
       </c>
       <c r="K3" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/",B4)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/cnpjNumber</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B4)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/cnpjNumber</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="13">
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="I4" s="11">
         <v>1</v>
@@ -2024,32 +2406,32 @@
         <v>1</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="263.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="262.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/",B5)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/types</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/",B5)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/types</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>220</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>12</v>
       </c>
       <c r="E5" s="13">
         <v>50</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="6" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
@@ -2062,490 +2444,494 @@
     </row>
     <row r="6" spans="1:12" ht="263.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/",B6)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/serviceName</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/",B6)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/serviceName</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="13">
         <v>50</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="11">
         <v>1</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="263.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/",B7)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/serviceCode</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/",B7)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/serviceCode</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="13">
         <v>30</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="11">
         <v>1</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="263.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/",B8)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/chargingTriggerInfo</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/",B8)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/chargingTriggerInfo</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="13">
         <v>2000</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="11">
         <v>1</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/price/",B9)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/price/type</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/price/",B9)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/price/type</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="13">
-        <v>6</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="20">
+        <v>30</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="I9" s="23">
+        <v>5</v>
+      </c>
+      <c r="J9" s="23">
+        <v>5</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/price/",B10)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/price/value</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="26">
+        <v>12</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
+      <c r="H10" s="27"/>
+      <c r="I10" s="23">
+        <v>5</v>
+      </c>
+      <c r="J10" s="23">
+        <v>5</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/price/",B11)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/price/currency</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="26">
         <v>3</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/price/",B10)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/price/value</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="F11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="13">
-        <v>12</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
-        <v>3</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/price/",B11)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/price/currency</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="13">
-        <v>3</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
-        <v>3</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>209</v>
+      <c r="G11" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="I11" s="23">
+        <v>5</v>
+      </c>
+      <c r="J11" s="23">
+        <v>5</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/",B12)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/additionalInfo</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/",B12)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/additionalInfo</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="13">
         <v>80</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="11">
         <v>0</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/",B13)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/fees/changingUnit</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/",B13)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/changingUnit</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="13">
         <v>50</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="11">
         <v>1</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
-        <f t="shared" ref="A14:A19" si="0">CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/",B14)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/rate</v>
+        <f t="shared" ref="A14:A19" si="0">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/",B14)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/rate</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="13">
         <v>7</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="11">
         <v>0</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/referencialRate</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/referencialRate</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="16">
         <v>7</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="11">
         <v>0</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/indexer</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/indexer</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="16">
         <v>30</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="11">
         <v>0</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/prePostTax</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/prePostTax</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E17" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="I17" s="11">
         <v>0</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/frequency</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/frequency</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="13">
+        <v>32</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="16">
         <v>4</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>37</v>
+        <v>224</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="I18" s="11">
         <v>0</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/interestRates/incomeRateInfo</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/incomeRateInfo</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="13">
         <v>2000</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="11">
         <v>0</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/",B20)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/requiredWarranties</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/",B20)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/requiredWarranties</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>19</v>
+        <v>217</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>12</v>
       </c>
       <c r="E20" s="13">
         <v>100</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="12" t="s">
-        <v>232</v>
+        <v>13</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>229</v>
       </c>
       <c r="I20" s="11">
         <v>1</v>
@@ -2557,33 +2943,33 @@
     </row>
     <row r="21" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/",B21)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/personalFinancings/termsConditions</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/",B21)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/termsConditions</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="13">
         <v>2000</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="11">
         <v>0</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K21" s="6"/>
     </row>
@@ -2659,7 +3045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2670,7 +3056,7 @@
   <cols>
     <col min="1" max="1" width="63.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="20.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="126.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="133.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="4" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="13" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="4" customWidth="1"/>
@@ -2720,26 +3106,26 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/",B2)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/name</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/",B2)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/name</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="13">
         <v>30</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="11">
@@ -2749,32 +3135,32 @@
         <v>1</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B3)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/name</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/",B3)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/name</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="13">
         <v>30</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="11">
@@ -2784,34 +3170,34 @@
         <v>1</v>
       </c>
       <c r="K3" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/",B4)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/cnpjNumber</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/",B4)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/cnpjNumber</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="13">
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="I4" s="11">
         <v>1</v>
@@ -2820,32 +3206,32 @@
         <v>1</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="390" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="360.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/",B5)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/types</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/",B5)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/types</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>215</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>12</v>
       </c>
       <c r="E5" s="13">
         <v>50</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="6" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
@@ -2856,530 +3242,532 @@
       <c r="K5" s="6"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/",B6)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/serviceName</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/",B6)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/serviceName</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="13">
         <v>50</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="11">
         <v>1</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/",B7)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/serviceCode</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/",B7)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/serviceCode</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="13">
         <v>30</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="11">
         <v>1</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/",B8)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/chargingTriggerInfo</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/",B8)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/chargingTriggerInfo</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="13">
         <v>2000</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="11">
         <v>1</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/price/",B9)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/price/type</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/price/",B9)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/price/type</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="13">
-        <v>6</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
-        <v>3</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="20">
+        <v>30</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="I9" s="23">
+        <v>5</v>
+      </c>
+      <c r="J9" s="23">
+        <v>5</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/price/",B10)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/price/value</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/price/",B10)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/price/value</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D10" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="26">
+        <v>12</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="13">
+      <c r="G10" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="23">
+        <v>5</v>
+      </c>
+      <c r="J10" s="23">
+        <v>5</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/price/",B11)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/price/currency</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
+      <c r="E11" s="26">
         <v>3</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/price/",B11)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/price/currency</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="13">
-        <v>3</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
-        <v>3</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>209</v>
+      <c r="G11" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="I11" s="23">
+        <v>5</v>
+      </c>
+      <c r="J11" s="23">
+        <v>5</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/",B12)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/additionalInfo</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/",B12)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/additionalInfo</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="13">
         <v>80</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="11">
         <v>0</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/",B13)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/fees/changingUnit</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/",B13)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/changingUnit</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="13">
         <v>50</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="11">
         <v>1</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
-        <f t="shared" ref="A14:A19" si="0">CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/interestRates/",B14)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/interestRates/rate</v>
+        <f t="shared" ref="A14:A19" si="0">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/",B14)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/rate</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="13">
         <v>7</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="11">
         <v>0</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/interestRates/referencialRate</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/referencialRate</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="16">
         <v>7</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="11">
         <v>0</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/interestRates/indexer</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/indexer</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="16">
         <v>30</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="11">
         <v>0</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/interestRates/prePostTax</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/prePostTax</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>12</v>
       </c>
       <c r="E17" s="16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="I17" s="11">
         <v>0</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/interestRates/frequency</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/frequency</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>12</v>
       </c>
       <c r="E18" s="13">
         <v>4</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>37</v>
+        <v>224</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="I18" s="11">
         <v>0</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/interestRates/incomeRateInfo</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/incomeRateInfo</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="13">
         <v>2000</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="11">
         <v>0</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="360" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="362.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/",B20)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/requiredWarranties</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/",B20)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/requiredWarranties</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>19</v>
+        <v>216</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>12</v>
       </c>
       <c r="E20" s="13">
         <v>100</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="I20" s="15">
+        <v>212</v>
+      </c>
+      <c r="I20" s="31">
         <v>1</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="31">
         <v>14</v>
       </c>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/",B21)</f>
-        <v>openBankingBrazil/&lt;organisation&gt;/companies/businessFinancings/termsConditions</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/",B21)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/termsConditions</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="13">
         <v>2000</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="11">
         <v>0</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K21" s="6"/>
     </row>
@@ -3466,112 +3854,112 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3595,163 +3983,163 @@
   <sheetData>
     <row r="1" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -3761,142 +4149,142 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
@@ -3907,7 +4295,7 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
@@ -3918,7 +4306,7 @@
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
@@ -3934,157 +4322,157 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
@@ -4094,172 +4482,172 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
@@ -4269,12 +4657,12 @@
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/DicionarioDeDados-Financiamento.xlsx
+++ b/DicionarioDeDados-Financiamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSDS\Documents\GitHub\Open-Banking-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B045F201-85FF-47F5-8F40-5B009D2DDB26}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABA3F603-0910-423D-B36A-5B4EF91409AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="240">
   <si>
     <t>Xpath</t>
   </si>
@@ -933,293 +933,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: o cedente transfere ao credor/cessionário a titularidade de direitos creditórios, até a liquidação da dívida. O credor/cessionário passa a recebê-los diretamente dos devedores e credita o produto da operação para o cedente na operação que originou a cessão, até a sua liquidação
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>caução</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: garantia instituída sobre créditos do garantidor
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>penhor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: direito real que consiste na tradição de uma coisa móvel ou mobilizável, suscetível de alienação, realizada pelo devedor ou por terceiro ao credor, a fim de garantir o pagamento do débito
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>alienação fiduciária</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: o cedente transfere ao credor/cessionário a titularidade de direitos creditórios, até a liquidação da dívida. O credor/cessionário passa a recebê-los diretamente dos devedores e credita o produto da operação para o cedente na operação que originou a cessão, até a sua liquidação 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hipoteca</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: direito real de garantia que afeta um bem imóvel para o cumprimento da obrigação
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>operações garantidas pelo governo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: nas instâncias federal, estadual ou municipal
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>outras garantias não fidejussórias</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: as garantias reais não descritas como: cessão de direitos creditórios, caução, penhor, alienação fiduciária, hipoteca ou operação garantida pelo governo 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>seguros e assemelhados</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: os seguros (e assemelhados) contratados para garantir o pagamento da operação em circunstâncias adversas.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>garantia fidejussória</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: baseada na fidelidade do garantidor em cumprir as obrigações, caso o devedor não o faça
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bens arrendados</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: bem objeto do arrendamento financeiro</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>garantias internacionais</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: declarar se a garantia é mitigadora ou não, observados os critérios definidos pela Circular 3.644, de 4 de março de 2013
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>operações garantidas por outras entidade</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: declarar as garantias prestadas pelas entidades descritas no item 3. Informações de Garantias (i) do documento 3040 - Bacen
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>acordos de compensação</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: operações que sejam abrangidas por acordos para a compensação e liquidação de obrigações no âmbito do SFN, nos termos da Resolução 3.263, de 24 de fevereiro de 2005
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>não aplicável</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Relação de garantias exigidas, segundo documento 3040 do Bacen: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cessão de direitos creditórios</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">: o cedente transfere ao credor/cessionário a titularidade de direitos creditórios, até a liquidação da dívida. O credor/cessionário passa a recebê-los diretamente dos devedores e credita o produto da operação para o cedente na operação que originou a cessão, até a sua liquidação, 
 </t>
     </r>
@@ -1785,12 +1498,338 @@
   <si>
     <t>Números de 0 a 9.</t>
   </si>
+  <si>
+    <t>Identifica o período referente ao percentual de taxa de remuneração efetivamente aplicada no intervalo informado: mínimo, 1º quartil de clientes, 2º quartil de clientes, 3º quartil de clientes e 4º quartil de clientes</t>
+  </si>
+  <si>
+    <t>Valor do percentual que corresponde a taxa de remuneração efetivamente aplicada no intervalo informado
+(representação de uma porcentagem Ex: 0.15 (O valor ao lado representa 15%. O valor 1 representa 100%))</t>
+  </si>
+  <si>
+    <t>Valor de referência utilizado na apuração dos percentuais informados por quartil
+(representa um valor monetário Ex: 1547368.92 (O valor ao lado, considerando que a moeda seja BRL, significa R$ 1.547.368,92). O único separador presente deverá ser o . (ponto) para casa decimal. Não deve haver separador de milhar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moeda relativa ao valor de referência, segundo modelo ISO-4217. p. ex. 'BRL' </t>
+  </si>
+  <si>
+    <t>BRL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Relação de garantias exigidas, segundo documento 3040 do Bacen: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cessão de direitos creditórios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: o cedente transfere ao credor/cessionário a titularidade de direitos creditórios, até a liquidação da dívida. O credor/cessionário passa a recebê-los diretamente dos devedores e credita o produto da operação para o cedente na operação que originou a cessão, até a sua liquidação
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>caução</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: garantia instituída sobre créditos do garantidor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>penhor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: direito real que consiste na tradição de uma coisa móvel ou mobilizável, suscetível de alienação, realizada pelo devedor ou por terceiro ao credor, a fim de garantir o pagamento do débito
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alienação fiduciária</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: o cedente transfere ao credor/cessionário a titularidade de direitos creditórios, até a liquidação da dívida. O credor/cessionário passa a recebê-los diretamente dos devedores e credita o produto da operação para o cedente na operação que originou a cessão, até a sua liquidação 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hipoteca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: direito real de garantia que afeta um bem imóvel para o cumprimento da obrigação
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>operações garantidas pelo governo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nas instâncias federal, estadual ou municipal
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>outras garantias não fidejussórias</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: as garantias reais não descritas como: cessão de direitos creditórios, caução, penhor, alienação fiduciária, hipoteca ou operação garantida pelo governo 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>seguros e assemelhados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: os seguros (e assemelhados) contratados para garantir o pagamento da operação em circunstâncias adversas.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>garantia fidejussória</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: baseada na fidelidade do garantidor em cumprir as obrigações, caso o devedor não o faça
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bens arrendados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: bem objeto do arrendamento financeiro
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>garantias internacionais</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: declarar se a garantia é mitigadora ou não, observados os critérios definidos pela Circular 3.644, de 4 de março de 2013
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>operações garantidas por outras entidade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: declarar as garantias prestadas pelas entidades descritas no item 3. Informações de Garantias (i) do documento 3040 - Bacen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>acordos de compensação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: operações que sejam abrangidas por acordos para a compensação e liquidação de obrigações no âmbito do SFN, nos termos da Resolução 3.263, de 24 de fevereiro de 2005
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não aplicável</t>
+    </r>
+  </si>
+  <si>
+    <t>referenceValue</t>
+  </si>
+  <si>
+    <t>referenceCurrency</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1826,8 +1865,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1837,6 +1884,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1868,7 +1921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1961,6 +2014,39 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2243,23 +2329,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987C75EC-EA35-4B16-ACF7-D2E55CD1199E}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B22:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="83.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="215.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="30.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="45.140625" style="4" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -2281,7 +2367,7 @@
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -2313,12 +2399,12 @@
         <v>11</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="11">
         <v>30</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -2348,12 +2434,12 @@
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <v>30</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -2387,7 +2473,7 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -2397,7 +2483,7 @@
         <v>190</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I4" s="11">
         <v>1</v>
@@ -2418,12 +2504,12 @@
         <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>50</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -2431,7 +2517,7 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
@@ -2456,7 +2542,7 @@
       <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <v>50</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -2488,7 +2574,7 @@
       <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
         <v>30</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -2514,12 +2600,12 @@
         <v>192</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="11">
         <v>2000</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -2546,22 +2632,22 @@
         <v>206</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="23">
         <v>30</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>225</v>
       </c>
       <c r="I9" s="23">
         <v>5</v>
@@ -2570,7 +2656,7 @@
         <v>5</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2582,12 +2668,12 @@
         <v>193</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="41">
         <v>12</v>
       </c>
       <c r="F10" s="21" t="s">
@@ -2604,7 +2690,7 @@
         <v>5</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2621,7 +2707,7 @@
       <c r="D11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="41">
         <v>3</v>
       </c>
       <c r="F11" s="21" t="s">
@@ -2640,7 +2726,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2657,7 +2743,7 @@
       <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="11">
         <v>80</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -2691,7 +2777,7 @@
       <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="11">
         <v>50</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -2720,12 +2806,12 @@
         <v>22</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="11">
         <v>7</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -2757,7 +2843,7 @@
       <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="42">
         <v>7</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -2789,14 +2875,14 @@
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="42">
         <v>30</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="11">
@@ -2821,14 +2907,14 @@
       <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="42">
         <v>10</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>211</v>
@@ -2855,14 +2941,14 @@
       <c r="D18" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="42">
         <v>4</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>209</v>
@@ -2889,7 +2975,7 @@
       <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="11">
         <v>2000</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -2907,121 +2993,216 @@
       </c>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="255" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/",B20)</f>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/application/",B20)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/application/types</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="37">
+        <v>30</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="I20" s="23">
+        <v>5</v>
+      </c>
+      <c r="J20" s="23">
+        <v>5</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/application/",B21)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/application/rate</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="37">
+        <v>7</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="36"/>
+      <c r="I21" s="23">
+        <v>5</v>
+      </c>
+      <c r="J21" s="23">
+        <v>5</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/",B22)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/referenceValue</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="37">
+        <v>12</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="H22" s="34"/>
+      <c r="I22" s="37">
+        <v>1</v>
+      </c>
+      <c r="J22" s="37">
+        <v>1</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="25" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/",B23)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/referenceCurrency</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="38">
+        <v>3</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="I23" s="37">
+        <v>1</v>
+      </c>
+      <c r="J23" s="37">
+        <v>1</v>
+      </c>
+      <c r="K23" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="255" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/",B24)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/requiredWarranties</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B24" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="13">
+      <c r="C24" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="11">
         <v>100</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="I20" s="11">
+      <c r="G24" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="I24" s="11">
         <v>1</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J24" s="11">
         <v>14</v>
       </c>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/",B21)</f>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/",B25)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/termsConditions</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B25" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="13">
+      <c r="D25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="11">
         <v>2000</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="11">
+      <c r="H25" s="14"/>
+      <c r="I25" s="11">
         <v>0</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J25" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="12"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="E26" s="42"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="14"/>
@@ -3030,10 +3211,55 @@
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="12"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="14"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3043,18 +3269,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="93.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="20.140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="133.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" style="4" customWidth="1"/>
@@ -3113,7 +3339,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>12</v>
@@ -3197,7 +3423,7 @@
         <v>190</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I4" s="11">
         <v>1</v>
@@ -3231,7 +3457,7 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
@@ -3346,7 +3572,7 @@
         <v>206</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>12</v>
@@ -3358,10 +3584,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="H9" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>225</v>
       </c>
       <c r="I9" s="23">
         <v>5</v>
@@ -3370,7 +3596,7 @@
         <v>5</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3382,7 +3608,7 @@
         <v>193</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>12</v>
@@ -3404,7 +3630,7 @@
         <v>5</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3440,7 +3666,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3520,7 +3746,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>12</v>
@@ -3628,7 +3854,7 @@
         <v>23</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>211</v>
@@ -3662,7 +3888,7 @@
         <v>23</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H18" s="15" t="s">
         <v>209</v>
@@ -3707,119 +3933,214 @@
       </c>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="362.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/",B20)</f>
+    <row r="20" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/application/",B20)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/application/types</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="23">
+        <v>30</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="I20" s="23">
+        <v>5</v>
+      </c>
+      <c r="J20" s="23">
+        <v>5</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/application/",B21)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/application/rate</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="23">
+        <v>7</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="23">
+        <v>5</v>
+      </c>
+      <c r="J21" s="23">
+        <v>5</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/",B22)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/referenceValue</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="37">
+        <v>12</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="H22" s="34"/>
+      <c r="I22" s="37">
+        <v>1</v>
+      </c>
+      <c r="J22" s="37">
+        <v>1</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="25" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/",B23)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/referenceCurrency</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="38">
+        <v>3</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="I23" s="37">
+        <v>1</v>
+      </c>
+      <c r="J23" s="37">
+        <v>1</v>
+      </c>
+      <c r="K23" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="362.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/",B24)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/requiredWarranties</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B24" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="13">
+      <c r="C24" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="13">
         <v>100</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="12" t="s">
+      <c r="G24" s="15"/>
+      <c r="H24" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I24" s="31">
         <v>1</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J24" s="31">
         <v>14</v>
       </c>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/",B21)</f>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/",B25)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/termsConditions</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B25" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C25" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="13">
+      <c r="D25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="13">
         <v>2000</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="11">
+      <c r="H25" s="14"/>
+      <c r="I25" s="11">
         <v>0</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J25" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="12"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="14"/>
@@ -3828,10 +4149,55 @@
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="12"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="14"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DicionarioDeDados-Financiamento.xlsx
+++ b/DicionarioDeDados-Financiamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSDS\Documents\GitHub\Open-Banking-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABA3F603-0910-423D-B36A-5B4EF91409AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{401A5431-9F29-4B3D-82FE-D68F2DF0F529}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="241">
   <si>
     <t>Xpath</t>
   </si>
@@ -912,293 +912,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Relação de garantias exigidas, segundo documento 3040 do Bacen: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cessão de direitos creditórios</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: o cedente transfere ao credor/cessionário a titularidade de direitos creditórios, até a liquidação da dívida. O credor/cessionário passa a recebê-los diretamente dos devedores e credita o produto da operação para o cedente na operação que originou a cessão, até a sua liquidação, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>caução</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: garantia instituída sobre créditos do garantidor
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>penhor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: direito real que consiste na tradição de uma coisa móvel ou mobilizável, suscetível de alienação, realizada pelo devedor ou por terceiro ao credor, a fim de garantir o pagamento do débito
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>alienação fiduciária</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: o cedente transfere ao credor/cessionário a titularidade de direitos creditórios, até a liquidação da dívida. O credor/cessionário passa a recebê-los diretamente dos devedores e credita o produto da operação para o cedente na operação que originou a cessão, até a sua liquidação
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hipoteca</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: direito real de garantia que afeta um bem imóvel para o cumprimento da obrigação
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>operações garantidas pelo governo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: nas instâncias federal, estadual ou municipal
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>outras garantias não fidejussórias</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: as garantias reais não descritas como: cessão de direitos creditórios, caução, penhor, alienação fiduciária, hipoteca ou operação garantida pelo governo 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>seguros e assemelhados</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: os seguros (e assemelhados) contratados para garantir o pagamento da operação em circunstâncias adversas
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>garantia fidejussória</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: baseada na fidelidade do garantidor em cumprir as obrigações, caso o devedor não o faça
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bens arrendados</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: bem objeto do arrendamento financeiro</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>garantias internacionais</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: declarar se a garantia é mitigadora ou não, observados os critérios definidos pela Circular 3.644, de 4 de março de 2013
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>operações garantidas por outras entidade</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: declarar as garantias prestadas pelas entidades descritas no item 3. Informações de Garantias (i) do documento 3040 - Bacen
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>acordos de compensação</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: operações que sejam abrangidas por acordos para a compensação e liquidação de obrigações no âmbito do SFN, nos termos da Resolução 3.263, de 24 de fevereiro de 2005 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>não aplicável</t>
-    </r>
-  </si>
-  <si>
     <t>Nome da Instituição, pertencente à marca, responsável pela comercialização das modalidades de Financiamentos para Pessoas Físicas consultadas. Ex. 'Empresa da Organização A'</t>
   </si>
   <si>
@@ -1436,9 +1149,6 @@
     <t xml:space="preserve">Fatores geradores de cobrança que incidem sobre as Modalidades de Financiamentos, para pessoa física. Campo Livre </t>
   </si>
   <si>
-    <t>Indica o tipo de valor referente a tarifa do serviço informado: mínimo, 1º quartil de clientes, 2º quartil de clientes, 3º quartil de clientes e 4º quartil de clientes</t>
-  </si>
-  <si>
     <t>\W*</t>
   </si>
   <si>
@@ -1450,10 +1160,6 @@
   </si>
   <si>
     <t>Este campo deve estar obrigatoriamente preenchido</t>
-  </si>
-  <si>
-    <t>Valor da tarifa cobrada, relativa ao serviço ofertado para a Modalidade de Financiamento, para pessoa física. p.ex. 45.00
-(representa um valor monetário Ex: 1547368.92 (O valor ao lado, considerando que a moeda seja BRL, significa R$ 1.547.368,92). O único separador presente deverá ser o . (ponto) para casa decimal. Não deve haver separador de milhar)</t>
   </si>
   <si>
     <t>Percentual que incide sobre a composição das taxas de juros remuneratórias
@@ -1492,10 +1198,6 @@
 (representa uma porcentagem Ex: 0.15 (O valor ao lado representa 15%. O valor 1 representa 100%)</t>
   </si>
   <si>
-    <t>Valor da tarifa cobrada, relativa ao serviço ofertado para a Modalidade de Financiamento, para pessoa jurídica. p.ex. 45.00
-(representa um valor monetário Ex: 1547368.92 (O valor ao lado, considerando que a moeda seja BRL, significa R$ 1.547.368,92). O único separador presente deverá ser o . (ponto) para casa decimal. Não deve haver separador de milhar)</t>
-  </si>
-  <si>
     <t>Números de 0 a 9.</t>
   </si>
   <si>
@@ -1823,13 +1525,304 @@
   </si>
   <si>
     <t>referenceCurrency</t>
+  </si>
+  <si>
+    <t>Valor de referência utilizado na apuração dos valores informados por quartil
+(representa um valor monetário Ex: 1547368.92 (O valor ao lado, considerando que a moeda seja BRL, significa R$ 1.547.368,92). O único separador presente deverá ser o . (ponto) para casa decimal. Não deve haver separador de milhar)</t>
+  </si>
+  <si>
+    <t>Indica o período relativo a tarifa do serviço informado: mínimo, 1º quartil de clientes, 2º quartil de clientes, 3º quartil de clientes e 4º quartil de clientes</t>
+  </si>
+  <si>
+    <t>Valor da tarifa, relativa ao serviço ofertado, para pessoa física informado no período. p.ex. '45.00'
+(representa um valor monetário Ex: 1547368.92 (O valor ao lado, considerando que a moeda seja BRL, significa R$ 1.547.368,92). O único separador presente deverá ser o . (ponto) para casa decimal. Não deve haver separador de milhar)</t>
+  </si>
+  <si>
+    <t>Valor da tarifa, relativa ao serviço ofertado, para pessoa jurídica informado no período. p.ex. '45.00'
+(representa um valor monetário Ex: 1547368.92 (O valor ao lado, considerando que a moeda seja BRL, significa R$ 1.547.368,92). O único separador presente deverá ser o . (ponto) para casa decimal. Não deve haver separador de milhar)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Relação de garantias exigidas, segundo documento 3040 do Bacen: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cessão de direitos creditórios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: o cedente transfere ao credor/cessionário a titularidade de direitos creditórios, até a liquidação da dívida. O credor/cessionário passa a recebê-los diretamente dos devedores e credita o produto da operação para o cedente na operação que originou a cessão, até a sua liquidação, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>caução</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: garantia instituída sobre créditos do garantidor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>penhor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: direito real que consiste na tradição de uma coisa móvel ou mobilizável, suscetível de alienação, realizada pelo devedor ou por terceiro ao credor, a fim de garantir o pagamento do débito
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alienação fiduciária</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: o cedente transfere ao credor/cessionário a titularidade de direitos creditórios, até a liquidação da dívida. O credor/cessionário passa a recebê-los diretamente dos devedores e credita o produto da operação para o cedente na operação que originou a cessão, até a sua liquidação
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hipoteca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: direito real de garantia que afeta um bem imóvel para o cumprimento da obrigação
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>operações garantidas pelo governo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: nas instâncias federal, estadual ou municipal
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>outras garantias não fidejussórias</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: as garantias reais não descritas como: cessão de direitos creditórios, caução, penhor, alienação fiduciária, hipoteca ou operação garantida pelo governo 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>seguros e assemelhados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: os seguros (e assemelhados) contratados para garantir o pagamento da operação em circunstâncias adversas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>garantia fidejussória</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: baseada na fidelidade do garantidor em cumprir as obrigações, caso o devedor não o faça
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bens arrendados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: bem objeto do arrendamento financeiro
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>garantias internacionais</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: declarar se a garantia é mitigadora ou não, observados os critérios definidos pela Circular 3.644, de 4 de março de 2013
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>operações garantidas por outras entidade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: declarar as garantias prestadas pelas entidades descritas no item 3. Informações de Garantias (i) do documento 3040 - Bacen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>acordos de compensação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: operações que sejam abrangidas por acordos para a compensação e liquidação de obrigações no âmbito do SFN, nos termos da Resolução 3.263, de 24 de fevereiro de 2005 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não aplicável</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1846,21 +1839,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1921,7 +1899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1981,9 +1959,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1999,9 +1974,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2015,12 +1987,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2329,13 +2295,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987C75EC-EA35-4B16-ACF7-D2E55CD1199E}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B22:B23"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2367,7 +2333,7 @@
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -2399,7 +2365,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>12</v>
@@ -2434,7 +2400,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
@@ -2483,7 +2449,7 @@
         <v>190</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I4" s="11">
         <v>1</v>
@@ -2504,9 +2470,9 @@
         <v>17</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="11">
@@ -2517,7 +2483,7 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
@@ -2600,7 +2566,7 @@
         <v>192</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>12</v>
@@ -2631,32 +2597,32 @@
       <c r="B9" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="22">
+        <v>30</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="H9" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="23">
-        <v>30</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="I9" s="22">
+        <v>5</v>
+      </c>
+      <c r="J9" s="22">
+        <v>5</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>223</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="I9" s="23">
-        <v>5</v>
-      </c>
-      <c r="J9" s="23">
-        <v>5</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2667,30 +2633,30 @@
       <c r="B10" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="41">
-        <v>12</v>
-      </c>
-      <c r="F10" s="21" t="s">
+      <c r="C10" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="37">
+        <v>12</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="23">
+      <c r="H10" s="25"/>
+      <c r="I10" s="22">
         <v>5</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>5</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2701,188 +2667,194 @@
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="41">
+      <c r="D11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="37">
         <v>3</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>5</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <v>5</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="str">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/",B12)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/referenceValue</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="33">
+        <v>12</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="33">
+        <v>1</v>
+      </c>
+      <c r="J12" s="33">
+        <v>1</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/",B13)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/referenceCurrency</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="34">
+        <v>3</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="I13" s="33">
+        <v>1</v>
+      </c>
+      <c r="J13" s="33">
+        <v>1</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/",B14)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/additionalInfo</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="11">
         <v>80</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/",B13)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/changingUnit</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="11">
-        <v>50</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="11">
-        <v>1</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="str">
-        <f t="shared" ref="A14:A19" si="0">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/",B14)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/rate</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="11">
-        <v>7</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="11">
         <v>0</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="K14" s="6"/>
+      <c r="K14" s="6" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/referencialRate</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/",B15)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/changingUnit</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>26</v>
+        <v>195</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="42">
-        <v>7</v>
+      <c r="E15" s="11">
+        <v>50</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="12"/>
       <c r="I15" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K15" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/indexer</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>27</v>
+        <f t="shared" ref="A16:A21" si="0">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/",B16)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/rate</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="42">
-        <v>30</v>
+      <c r="E16" s="11">
+        <v>7</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>223</v>
+      <c r="G16" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="11">
@@ -2893,32 +2865,30 @@
       </c>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/prePostTax</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>29</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/referencialRate</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="42">
-        <v>10</v>
+      <c r="E17" s="38">
+        <v>7</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>211</v>
-      </c>
+      <c r="G17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="14"/>
       <c r="I17" s="11">
         <v>0</v>
       </c>
@@ -2927,32 +2897,30 @@
       </c>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/frequency</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/indexer</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="42">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="38">
+        <v>30</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>209</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="H18" s="14"/>
       <c r="I18" s="11">
         <v>0</v>
       </c>
@@ -2961,30 +2929,32 @@
       </c>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/incomeRateInfo</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/prePostTax</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>189</v>
+        <v>29</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="11">
-        <v>2000</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="E19" s="38">
+        <v>10</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="5"/>
+        <v>221</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>211</v>
+      </c>
       <c r="I19" s="11">
         <v>0</v>
       </c>
@@ -2993,237 +2963,282 @@
       </c>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/application/",B20)</f>
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/frequency</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="38">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/incomeRateInfo</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="11">
+        <v>2000</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/application/",B22)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/application/types</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B22" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C22" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="33">
+        <v>30</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="I22" s="33">
+        <v>5</v>
+      </c>
+      <c r="J22" s="33">
+        <v>5</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/application/",B23)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/application/rate</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="33">
+        <v>7</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="32"/>
+      <c r="I23" s="33">
+        <v>5</v>
+      </c>
+      <c r="J23" s="33">
+        <v>5</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/",B24)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/referenceValue</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="33">
+        <v>12</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="H24" s="30"/>
+      <c r="I24" s="33">
+        <v>1</v>
+      </c>
+      <c r="J24" s="33">
+        <v>1</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/",B25)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/referenceCurrency</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="34">
+        <v>3</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="H25" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="D20" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="37">
-        <v>30</v>
-      </c>
-      <c r="F20" s="36" t="s">
+      <c r="I25" s="33">
+        <v>1</v>
+      </c>
+      <c r="J25" s="33">
+        <v>1</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="255" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/",B26)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/requiredWarranties</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="11">
+        <v>100</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="I20" s="23">
-        <v>5</v>
-      </c>
-      <c r="J20" s="23">
-        <v>5</v>
-      </c>
-      <c r="K20" s="17" t="s">
+      <c r="G26" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H26" s="27" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/application/",B21)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/application/rate</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="37">
-        <v>7</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="23">
-        <v>5</v>
-      </c>
-      <c r="J21" s="23">
-        <v>5</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/",B22)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/referenceValue</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="37">
-        <v>12</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="37">
+      <c r="I26" s="11">
         <v>1</v>
       </c>
-      <c r="J22" s="37">
-        <v>1</v>
-      </c>
-      <c r="K22" s="35" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="25" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/",B23)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/referenceCurrency</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="38">
-        <v>3</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="I23" s="37">
-        <v>1</v>
-      </c>
-      <c r="J23" s="37">
-        <v>1</v>
-      </c>
-      <c r="K23" s="35" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="255" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/",B24)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/requiredWarranties</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="11">
-        <v>100</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="I24" s="11">
-        <v>1</v>
-      </c>
-      <c r="J24" s="11">
+      <c r="J26" s="11">
         <v>14</v>
       </c>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/",B25)</f>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/",B27)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/termsConditions</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B27" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="11">
+      <c r="D27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="11">
         <v>2000</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="11">
+      <c r="H27" s="14"/>
+      <c r="I27" s="11">
         <v>0</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J27" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="12"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
-      <c r="E28" s="42"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="14"/>
@@ -3232,10 +3247,8 @@
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="C29" s="12"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="14"/>
@@ -3243,11 +3256,10 @@
       <c r="J29" s="11"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+    <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="E30" s="38"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="14"/>
@@ -3256,10 +3268,34 @@
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="14"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3269,13 +3305,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3339,7 +3375,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>12</v>
@@ -3423,7 +3459,7 @@
         <v>190</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I4" s="11">
         <v>1</v>
@@ -3446,7 +3482,7 @@
       <c r="C5" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="28" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="13">
@@ -3457,7 +3493,7 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I5" s="11">
         <v>1</v>
@@ -3571,32 +3607,32 @@
       <c r="B9" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="13">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="20">
-        <v>30</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="21" t="s">
+      <c r="I9" s="22">
+        <v>5</v>
+      </c>
+      <c r="J9" s="22">
+        <v>5</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>223</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="I9" s="23">
-        <v>5</v>
-      </c>
-      <c r="J9" s="23">
-        <v>5</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3607,30 +3643,30 @@
       <c r="B10" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="26">
-        <v>12</v>
-      </c>
-      <c r="F10" s="21" t="s">
+      <c r="C10" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="13">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="23">
+      <c r="H10" s="5"/>
+      <c r="I10" s="22">
         <v>5</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>5</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3641,188 +3677,194 @@
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="26">
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="13">
         <v>3</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <v>5</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <v>5</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="str">
+      <c r="A12" s="32" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/",B12)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/referenceValue</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="33">
+        <v>12</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="33">
+        <v>1</v>
+      </c>
+      <c r="J12" s="33">
+        <v>1</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/",B13)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/referenceCurrency</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="34">
+        <v>3</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="I13" s="33">
+        <v>1</v>
+      </c>
+      <c r="J13" s="33">
+        <v>1</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/",B14)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/additionalInfo</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="13">
         <v>80</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/",B13)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/changingUnit</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="13">
-        <v>50</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="11">
-        <v>1</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="str">
-        <f t="shared" ref="A14:A19" si="0">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/",B14)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/rate</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="13">
-        <v>7</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="11">
         <v>0</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="K14" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/referencialRate</v>
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/",B15)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/changingUnit</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>26</v>
+        <v>195</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="16">
-        <v>7</v>
+      <c r="E15" s="13">
+        <v>50</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="12"/>
       <c r="I15" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="K15" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/indexer</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>27</v>
+        <f t="shared" ref="A16:A21" si="0">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/",B16)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/rate</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="16">
-        <v>30</v>
+      <c r="E16" s="13">
+        <v>7</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>14</v>
+      <c r="G16" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="11">
@@ -3833,32 +3875,30 @@
       </c>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/prePostTax</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>29</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/referencialRate</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>211</v>
-      </c>
+      <c r="G17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="14"/>
       <c r="I17" s="11">
         <v>0</v>
       </c>
@@ -3867,32 +3907,30 @@
       </c>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/frequency</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/indexer</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="13">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="16">
+        <v>30</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>209</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H18" s="14"/>
       <c r="I18" s="11">
         <v>0</v>
       </c>
@@ -3901,30 +3939,32 @@
       </c>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/incomeRateInfo</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/prePostTax</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="13">
-        <v>2000</v>
-      </c>
-      <c r="F19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="16">
+        <v>10</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="5"/>
+        <v>221</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>211</v>
+      </c>
       <c r="I19" s="11">
         <v>0</v>
       </c>
@@ -3933,232 +3973,277 @@
       </c>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/application/",B20)</f>
+    <row r="20" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/frequency</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="13">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/incomeRateInfo</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="13">
+        <v>2000</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/application/",B22)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/application/types</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C22" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="31">
+        <v>30</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="I22" s="31">
+        <v>5</v>
+      </c>
+      <c r="J22" s="31">
+        <v>5</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/application/",B23)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/application/rate</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="31">
+        <v>7</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31">
+        <v>5</v>
+      </c>
+      <c r="J23" s="31">
+        <v>5</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/",B24)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/referenceValue</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="33">
+        <v>12</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="H24" s="30"/>
+      <c r="I24" s="33">
+        <v>1</v>
+      </c>
+      <c r="J24" s="33">
+        <v>1</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/",B25)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/referenceCurrency</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="34">
+        <v>3</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="H25" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="23">
-        <v>30</v>
-      </c>
-      <c r="F20" s="21" t="s">
+      <c r="I25" s="33">
+        <v>1</v>
+      </c>
+      <c r="J25" s="33">
+        <v>1</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="362.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/",B26)</f>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/requiredWarranties</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="13">
+        <v>100</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="I20" s="23">
-        <v>5</v>
-      </c>
-      <c r="J20" s="23">
-        <v>5</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/application/",B21)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/application/rate</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="23">
-        <v>7</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="23">
-        <v>5</v>
-      </c>
-      <c r="J21" s="23">
-        <v>5</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/",B22)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/referenceValue</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="37">
-        <v>12</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="37">
+      <c r="G26" s="15"/>
+      <c r="H26" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="I26" s="29">
         <v>1</v>
       </c>
-      <c r="J22" s="37">
-        <v>1</v>
-      </c>
-      <c r="K22" s="35" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="25" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/",B23)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/referenceCurrency</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="38">
-        <v>3</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="I23" s="37">
-        <v>1</v>
-      </c>
-      <c r="J23" s="37">
-        <v>1</v>
-      </c>
-      <c r="K23" s="35" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="362.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/",B24)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/requiredWarranties</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="13">
-        <v>100</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="I24" s="31">
-        <v>1</v>
-      </c>
-      <c r="J24" s="31">
+      <c r="J26" s="29">
         <v>14</v>
       </c>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="str">
-        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/",B25)</f>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="str">
+        <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/",B27)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/termsConditions</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B27" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="13">
+      <c r="D27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="13">
         <v>2000</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="11">
+      <c r="H27" s="14"/>
+      <c r="I27" s="11">
         <v>0</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J27" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="12"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="E28" s="16"/>
@@ -4170,10 +4255,8 @@
       <c r="K28" s="6"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="C29" s="12"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="14"/>
@@ -4181,11 +4264,10 @@
       <c r="J29" s="11"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+    <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="E30" s="16"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="14"/>
@@ -4194,10 +4276,34 @@
       <c r="K30" s="6"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="14"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DicionarioDeDados-Financiamento.xlsx
+++ b/DicionarioDeDados-Financiamento.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i077448\Desktop\ultimo dicionario\nova estrutura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erdxbpo\OneDrive - Banco Itaú SA\Documentos\AD\OpenBankingData\Febraban\DataOwner\DicionáriosOficiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_F85BD4796BCCB7F89410C4494CE1EDF8D340F3E5" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{5B79769B-E698-4C7F-AC9A-16CA8363D84D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8412"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FinanciamentosPF" sheetId="10" r:id="rId1"/>
     <sheet name="FinanciamentosPJ" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1333,7 +1334,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1364,30 +1365,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1417,7 +1400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1455,9 +1438,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1476,19 +1456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1500,9 +1468,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1512,17 +1477,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1803,7 +1768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -1813,59 +1778,59 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="100.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="45.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.88671875" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="11"/>
+    <col min="1" max="1" width="90.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="100.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="45.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.85546875" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="29" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/",B2)</f>
         <v>openBankingBrazil/&lt;brand&gt;/name</v>
@@ -1873,13 +1838,13 @@
       <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>30</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -1888,122 +1853,122 @@
       <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16">
+      <c r="H2" s="14"/>
+      <c r="I2" s="15">
         <v>1</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="15">
         <v>1</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="str">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/",B3)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/name</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="16">
+      <c r="D3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="15">
         <v>30</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16">
+      <c r="H3" s="14"/>
+      <c r="I3" s="15">
         <v>1</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="15">
         <v>1</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="str">
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/",B4)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/cnpjNumber</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="D4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="15">
         <v>14</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>1</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <v>1</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="str">
+    <row r="5" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/",B5)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/types</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="16">
+      <c r="D5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="15">
         <v>50</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>1</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>9</v>
       </c>
-      <c r="K5" s="17"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/",B6)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/serviceName</v>
@@ -2011,213 +1976,213 @@
       <c r="B6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>54</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>50</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="16">
+      <c r="H6" s="16"/>
+      <c r="I6" s="15">
         <v>1</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="str">
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/",B7)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/serviceCode</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>30</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16">
+      <c r="H7" s="14"/>
+      <c r="I7" s="15">
         <v>1</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/",B8)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/chargingTriggerInfo</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>2000</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16">
+      <c r="H8" s="14"/>
+      <c r="I8" s="15">
         <v>1</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="str">
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/price/",B9)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/price/interval</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="29">
+      <c r="D9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="23">
         <v>30</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="23">
         <v>4</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="23">
         <v>4</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="str">
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/price/",B10)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/price/value</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="29">
+      <c r="D10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="23">
         <v>7</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="29">
+      <c r="H10" s="16"/>
+      <c r="I10" s="23">
         <v>4</v>
       </c>
-      <c r="J10" s="29">
+      <c r="J10" s="23">
         <v>4</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="str">
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/price/",B11)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/price/currency</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="16">
-        <v>12</v>
-      </c>
-      <c r="F11" s="15" t="s">
+      <c r="E11" s="15">
+        <v>12</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16">
+      <c r="H11" s="14"/>
+      <c r="I11" s="15">
         <v>4</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <v>4</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="str">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/price/",B12)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/price/frequency</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>7</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -2226,398 +2191,398 @@
       <c r="G12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16">
+      <c r="H12" s="14"/>
+      <c r="I12" s="15">
         <v>4</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="15">
         <v>4</v>
       </c>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/",B13)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/additionalInfo</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>80</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="16">
+      <c r="H13" s="17"/>
+      <c r="I13" s="15">
         <v>0</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/",B14)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/changingUnit</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>50</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="16">
+      <c r="H14" s="17"/>
+      <c r="I14" s="15">
         <v>1</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" ref="A15:A20" si="0">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/",B15)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/rate</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>7</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="16">
+      <c r="H15" s="20"/>
+      <c r="I15" s="15">
         <v>0</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/referencialRate</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="23">
         <v>7</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="16">
+      <c r="H16" s="20"/>
+      <c r="I16" s="15">
         <v>0</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/indexer</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="23">
         <v>30</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="16">
+      <c r="H17" s="20"/>
+      <c r="I17" s="15">
         <v>0</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/prePostTax</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="23">
         <v>10</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="15">
         <v>0</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="17"/>
-    </row>
-    <row r="19" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/occurrence</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="29">
+      <c r="D19" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="23">
         <v>4</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="15">
         <v>0</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K19" s="17"/>
-    </row>
-    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/incomeRateInfo</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>2000</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16">
+      <c r="H20" s="14"/>
+      <c r="I20" s="15">
         <v>0</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="17"/>
-    </row>
-    <row r="21" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="str">
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/application/",B21)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/application/interval</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="17">
+      <c r="D21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="16">
         <v>30</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="23">
         <v>4</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="23">
         <v>4</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="str">
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/application/",B22)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/application/value</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="17">
+      <c r="D22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="16">
         <v>7</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="29">
+      <c r="H22" s="16"/>
+      <c r="I22" s="23">
         <v>4</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="23">
         <v>4</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K22" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="str">
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="str">
         <f t="shared" ref="A23:A24" si="1">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/application/",B23)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/application/currency</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="17" t="s">
         <v>84</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="16">
-        <v>12</v>
-      </c>
-      <c r="F23" s="15" t="s">
+      <c r="E23" s="15">
+        <v>12</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16">
+      <c r="H23" s="14"/>
+      <c r="I23" s="15">
         <v>4</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="15">
         <v>4</v>
       </c>
-      <c r="K23" s="17" t="s">
+      <c r="K23" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="str">
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="str">
         <f t="shared" si="1"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/application/frequency</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <v>7</v>
       </c>
       <c r="F24" s="12" t="s">
@@ -2626,82 +2591,82 @@
       <c r="G24" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="16">
+      <c r="H24" s="14"/>
+      <c r="I24" s="15">
         <v>4</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="15">
         <v>4</v>
       </c>
-      <c r="K24" s="17"/>
-    </row>
-    <row r="25" spans="1:11" ht="360" x14ac:dyDescent="0.3">
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/",B25)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/requiredWarranties</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="16">
+      <c r="D25" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="15">
         <v>100</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="15">
         <v>1</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="15">
         <v>14</v>
       </c>
-      <c r="K25" s="17"/>
-    </row>
-    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/",B26)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/termsConditions</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <v>2000</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="16">
+      <c r="H26" s="20"/>
+      <c r="I26" s="15">
         <v>0</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J26" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="17"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="E27" s="10"/>
@@ -2712,7 +2677,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="6"/>
       <c r="F28" s="2"/>
@@ -2722,7 +2687,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="E29" s="10"/>
@@ -2733,7 +2698,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2745,7 +2710,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2757,7 +2722,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -2770,69 +2735,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="100.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="66.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.88671875" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="11"/>
+    <col min="1" max="1" width="90.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="100.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="66.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.85546875" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="29" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/",B2)</f>
         <v>openBankingBrazil/&lt;brand&gt;/name</v>
@@ -2840,13 +2805,13 @@
       <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="16" t="s">
         <v>67</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>30</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -2855,122 +2820,122 @@
       <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16">
+      <c r="H2" s="14"/>
+      <c r="I2" s="15">
         <v>1</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="15">
         <v>1</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="str">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/",B3)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/name</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="14">
+      <c r="D3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="13">
         <v>30</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16">
+      <c r="H3" s="14"/>
+      <c r="I3" s="15">
         <v>1</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="15">
         <v>1</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="str">
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/",B4)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/cnpjNumber</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="D4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13">
         <v>14</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>1</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <v>1</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="str">
+    <row r="5" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/",B5)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/types</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="14">
+      <c r="D5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="13">
         <v>50</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="15">
         <v>1</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>9</v>
       </c>
-      <c r="K5" s="17"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/",B6)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/serviceName</v>
@@ -2978,215 +2943,215 @@
       <c r="B6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>50</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="16">
+      <c r="H6" s="16"/>
+      <c r="I6" s="15">
         <v>1</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="str">
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/",B7)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/serviceCode</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>30</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16">
+      <c r="H7" s="14"/>
+      <c r="I7" s="15">
         <v>1</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/",B8)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/chargingTriggerInfo</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>2000</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16">
+      <c r="H8" s="14"/>
+      <c r="I8" s="15">
         <v>1</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="str">
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/price/",B9)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/price/interval</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="16" t="s">
         <v>83</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>30</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <v>4</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <v>4</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="str">
+    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/price/",B10)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/price/value</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="17" t="s">
         <v>87</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="14">
-        <v>12</v>
-      </c>
-      <c r="F10" s="15" t="s">
+      <c r="E10" s="13">
+        <v>12</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16">
+      <c r="H10" s="14"/>
+      <c r="I10" s="15">
         <v>4</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="15">
         <v>4</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="str">
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/price/",B11)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/price/currency</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>3</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>4</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <v>4</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="str">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/price/",B12)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/price/frequency</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>7</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -3195,398 +3160,398 @@
       <c r="G12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16">
+      <c r="H12" s="14"/>
+      <c r="I12" s="15">
         <v>4</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="15">
         <v>4</v>
       </c>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/",B13)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/additionalInfo</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>80</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="16">
+      <c r="H13" s="17"/>
+      <c r="I13" s="15">
         <v>0</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/",B14)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/changingUnit</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>50</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="16">
+      <c r="H14" s="17"/>
+      <c r="I14" s="15">
         <v>1</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" ref="A15:A20" si="0">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/",B15)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/rate</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>7</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="16">
+      <c r="H15" s="20"/>
+      <c r="I15" s="15">
         <v>0</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/referencialRate</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="21">
         <v>7</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>23</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="16">
+      <c r="H16" s="20"/>
+      <c r="I16" s="15">
         <v>0</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/indexer</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="21">
         <v>30</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="16">
+      <c r="H17" s="20"/>
+      <c r="I17" s="15">
         <v>0</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/prePostTax</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="26">
+      <c r="D18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="21">
         <v>10</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="15">
         <v>0</v>
       </c>
-      <c r="J18" s="16" t="s">
+      <c r="J18" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="17"/>
-    </row>
-    <row r="19" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/occurrence</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="14">
+      <c r="D19" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="13">
         <v>4</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H19" s="23" t="s">
+      <c r="H19" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="15">
         <v>0</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K19" s="17"/>
-    </row>
-    <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
         <f t="shared" si="0"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/incomeRateInfo</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>2000</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16">
+      <c r="H20" s="14"/>
+      <c r="I20" s="15">
         <v>0</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="17"/>
-    </row>
-    <row r="21" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="str">
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/application/",B21)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/application/interval</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="17">
+      <c r="D21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="16">
         <v>30</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="23">
         <v>4</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="23">
         <v>4</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="str">
+    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="str">
         <f t="shared" ref="A22:A24" si="1">CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/application/",B22)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/application/value</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="17">
+      <c r="D22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="16">
         <v>7</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="29">
+      <c r="H22" s="16"/>
+      <c r="I22" s="23">
         <v>4</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="23">
         <v>4</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K22" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="str">
+    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="str">
         <f t="shared" si="1"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/application/currency</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="17" t="s">
         <v>84</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="16">
-        <v>12</v>
-      </c>
-      <c r="F23" s="15" t="s">
+      <c r="E23" s="15">
+        <v>12</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="16">
+      <c r="H23" s="14"/>
+      <c r="I23" s="15">
         <v>4</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="15">
         <v>4</v>
       </c>
-      <c r="K23" s="17" t="s">
+      <c r="K23" s="16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="str">
+    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="str">
         <f t="shared" si="1"/>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/application/frequency</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="17" t="s">
         <v>79</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <v>7</v>
       </c>
       <c r="F24" s="12" t="s">
@@ -3595,80 +3560,80 @@
       <c r="G24" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="16">
+      <c r="H24" s="14"/>
+      <c r="I24" s="15">
         <v>4</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="15">
         <v>4</v>
       </c>
-      <c r="K24" s="17"/>
-    </row>
-    <row r="25" spans="1:11" ht="360" x14ac:dyDescent="0.3">
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:11" ht="390" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/",B25)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/requiredWarranties</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="14">
+      <c r="D25" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="13">
         <v>100</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="18" t="s">
+      <c r="G25" s="19"/>
+      <c r="H25" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="31">
+      <c r="I25" s="25">
         <v>1</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="25">
         <v>14</v>
       </c>
-      <c r="K25" s="17"/>
-    </row>
-    <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/",B26)</f>
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/termsConditions</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>53</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="13">
         <v>2000</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="16">
+      <c r="H26" s="20"/>
+      <c r="I26" s="15">
         <v>0</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J26" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="17"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="E27" s="9"/>
@@ -3679,7 +3644,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="6"/>
       <c r="F28" s="2"/>
@@ -3689,7 +3654,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="E29" s="9"/>
@@ -3700,7 +3665,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3712,7 +3677,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3724,7 +3689,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>

--- a/DicionarioDeDados-Financiamento.xlsx
+++ b/DicionarioDeDados-Financiamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erdxbpo\OneDrive - Banco Itaú SA\Documentos\AD\OpenBankingData\Febraban\DataOwner\DicionáriosOficiais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_F85BD4796BCCB7F89410C4494CE1EDF8D340F3E5" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{5B79769B-E698-4C7F-AC9A-16CA8363D84D}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_F85BD4796BCCB7F89410C4494CE1EDF8D340F3E5" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{3AC267A0-85D1-4DBD-894A-F9C48DCBDB12}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,9 +166,6 @@
     <t>Descrição de como é composto o valor da tarifa. p.ex. '0,25% sobre o excedente do limite acima de R$ 500,00'</t>
   </si>
   <si>
-    <t>changingUnit</t>
-  </si>
-  <si>
     <t>Unidade ou forma de cobrança. P.ex. 'Por mês'</t>
   </si>
   <si>
@@ -1329,6 +1326,9 @@
   <si>
     <t>Valor médio da tarifa, relativa ao serviço ofertado, para pessoa física informado no período. p.ex. '45.00'
 (representa um valor monetário Ex: 1547368.92 (O valor ao lado, considerando que a moeda seja BRL, significa R$ 1.547.368,92). O único separador presente deverá ser o . (ponto) para casa decimal. Não deve haver separador de milhar)</t>
+  </si>
+  <si>
+    <t>chargingUnit</t>
   </si>
 </sst>
 </file>
@@ -1839,7 +1839,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>12</v>
@@ -1874,7 +1874,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>12</v>
@@ -1908,7 +1908,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>12</v>
@@ -1923,7 +1923,7 @@
         <v>39</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" s="15">
         <v>1</v>
@@ -1944,7 +1944,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>12</v>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I5" s="15">
         <v>1</v>
@@ -1977,7 +1977,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>12</v>
@@ -1996,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6" s="16"/>
     </row>
@@ -2028,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7" s="17"/>
     </row>
@@ -2041,7 +2041,7 @@
         <v>41</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>12</v>
@@ -2060,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8" s="16"/>
     </row>
@@ -2070,10 +2070,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/price/interval</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>12</v>
@@ -2085,10 +2085,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I9" s="23">
         <v>4</v>
@@ -2097,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2109,7 +2109,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>12</v>
@@ -2131,7 +2131,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2155,7 +2155,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="15">
@@ -2165,7 +2165,7 @@
         <v>4</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2177,7 +2177,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>12</v>
@@ -2206,7 +2206,7 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/additionalInfo</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>43</v>
@@ -2228,22 +2228,22 @@
         <v>0</v>
       </c>
       <c r="J13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/",B14)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/changingUnit</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/fees/chargingUnit</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>12</v>
@@ -2262,10 +2262,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2277,7 +2277,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>12</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15" s="16"/>
     </row>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16" s="16"/>
     </row>
@@ -2353,14 +2353,14 @@
         <v>23</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="15">
         <v>0</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17" s="16"/>
     </row>
@@ -2385,16 +2385,16 @@
         <v>23</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" s="15">
         <v>0</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18" s="16"/>
     </row>
@@ -2404,10 +2404,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/occurrence</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>12</v>
@@ -2419,16 +2419,16 @@
         <v>23</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="15">
         <v>0</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K19" s="16"/>
     </row>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20" s="16"/>
     </row>
@@ -2470,10 +2470,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/interestRates/application/interval</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>12</v>
@@ -2485,10 +2485,10 @@
         <v>13</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I21" s="23">
         <v>4</v>
@@ -2497,7 +2497,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2509,7 +2509,7 @@
         <v>42</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>12</v>
@@ -2531,7 +2531,7 @@
         <v>4</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2543,7 +2543,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>12</v>
@@ -2555,7 +2555,7 @@
         <v>13</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="15">
@@ -2565,7 +2565,7 @@
         <v>4</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2577,7 +2577,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>12</v>
@@ -2609,7 +2609,7 @@
         <v>33</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>12</v>
@@ -2621,10 +2621,10 @@
         <v>13</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I25" s="15">
         <v>1</v>
@@ -2640,7 +2640,7 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/personalFinancings/termsConditions</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>37</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26" s="16"/>
     </row>
@@ -2739,7 +2739,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -2806,7 +2806,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>12</v>
@@ -2841,7 +2841,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>12</v>
@@ -2875,7 +2875,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>12</v>
@@ -2890,7 +2890,7 @@
         <v>39</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I4" s="15">
         <v>1</v>
@@ -2911,7 +2911,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>12</v>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I5" s="15">
         <v>1</v>
@@ -2944,7 +2944,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>12</v>
@@ -2963,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6" s="16"/>
     </row>
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7" s="17"/>
     </row>
@@ -3008,7 +3008,7 @@
         <v>41</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>12</v>
@@ -3027,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8" s="16"/>
     </row>
@@ -3037,10 +3037,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/price/interval</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>12</v>
@@ -3052,10 +3052,10 @@
         <v>13</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I9" s="15">
         <v>4</v>
@@ -3064,7 +3064,7 @@
         <v>4</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -3076,7 +3076,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>12</v>
@@ -3088,7 +3088,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="15">
@@ -3098,7 +3098,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3134,7 +3134,7 @@
         <v>4</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3146,7 +3146,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>12</v>
@@ -3175,7 +3175,7 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/additionalInfo</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>43</v>
@@ -3197,22 +3197,22 @@
         <v>0</v>
       </c>
       <c r="J13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f>CONCATENATE("openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/",B14)</f>
-        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/changingUnit</v>
+        <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/fees/chargingUnit</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>45</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>12</v>
@@ -3231,10 +3231,10 @@
         <v>1</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -3246,7 +3246,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>12</v>
@@ -3265,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15" s="16"/>
     </row>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16" s="16"/>
     </row>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17" s="16"/>
     </row>
@@ -3354,16 +3354,16 @@
         <v>23</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" s="15">
         <v>0</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18" s="16"/>
     </row>
@@ -3373,10 +3373,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/occurrence</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>12</v>
@@ -3388,16 +3388,16 @@
         <v>23</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="15">
         <v>0</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K19" s="16"/>
     </row>
@@ -3410,7 +3410,7 @@
         <v>32</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>12</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20" s="16"/>
     </row>
@@ -3439,10 +3439,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/interestRates/application/interval</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>12</v>
@@ -3454,10 +3454,10 @@
         <v>13</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I21" s="23">
         <v>4</v>
@@ -3466,7 +3466,7 @@
         <v>4</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3478,7 +3478,7 @@
         <v>42</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>12</v>
@@ -3500,7 +3500,7 @@
         <v>4</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3512,7 +3512,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>12</v>
@@ -3524,7 +3524,7 @@
         <v>13</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="15">
@@ -3534,7 +3534,7 @@
         <v>4</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3546,7 +3546,7 @@
         <v>31</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>12</v>
@@ -3578,7 +3578,7 @@
         <v>33</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>12</v>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I25" s="25">
         <v>1</v>
@@ -3607,10 +3607,10 @@
         <v>openBankingBrazil/&lt;brand&gt;/companies/businessFinancings/termsConditions</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>12</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26" s="16"/>
     </row>
